--- a/Buzzworld_InternalPortal/tcfile.xlsx
+++ b/Buzzworld_InternalPortal/tcfile.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="99">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -35,137 +35,280 @@
     <t>Environment</t>
   </si>
   <si>
-    <t>REPAIRS_002_VerifyCreateRMA 000549</t>
-  </si>
-  <si>
-    <t>#000549
-RECEIVING</t>
-  </si>
-  <si>
-    <t>RECEIVING</t>
-  </si>
-  <si>
-    <t>RepairsPage</t>
+    <t>Verify BACO001 discount codes Count</t>
+  </si>
+  <si>
+    <t>Actual products count 16</t>
+  </si>
+  <si>
+    <t>Expected products count 7,112</t>
+  </si>
+  <si>
+    <t>PricingPage</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>2023-08-24 10:32:37</t>
+  </si>
+  <si>
+    <t>QA Instance</t>
+  </si>
+  <si>
+    <t>Verify BACO001 products Count</t>
+  </si>
+  <si>
+    <t>Actual products count 7,112</t>
   </si>
   <si>
     <t>Passed</t>
   </si>
   <si>
-    <t>2023-08-14 19:09:04</t>
-  </si>
-  <si>
-    <t>QA Instance</t>
-  </si>
-  <si>
-    <t>REPAIRS_003_VerifySelectItemToRepair</t>
-  </si>
-  <si>
-    <t>Repair Items (1)</t>
-  </si>
-  <si>
-    <t>Repair Items (2)</t>
-  </si>
-  <si>
-    <t>2023-08-14 19:09:40</t>
-  </si>
-  <si>
-    <t>REPAIRS_004_VerifyAssignLocation</t>
-  </si>
-  <si>
-    <t>CHECKED-IN</t>
-  </si>
-  <si>
-    <t>2023-08-14 19:09:52</t>
-  </si>
-  <si>
-    <t>REPAIRS_005_VerifyAssignTechnician</t>
-  </si>
-  <si>
-    <t>PENDING EVALUATION</t>
-  </si>
-  <si>
-    <t>2023-08-14 19:10:00</t>
-  </si>
-  <si>
-    <t>REPAIRS_006_VerifyEvaluateItem</t>
-  </si>
-  <si>
-    <t>PENDING QUOTE</t>
-  </si>
-  <si>
-    <t>2023-08-14 19:10:07</t>
-  </si>
-  <si>
-    <t>REPAIRS_007_VerifyAddRepairableItemToQuote</t>
-  </si>
-  <si>
-    <t>PENDING APPROVAL</t>
-  </si>
-  <si>
-    <t>2023-08-14 19:10:18</t>
-  </si>
-  <si>
-    <t>REPAIRS_008_VerifyCreateQuoteFromRepair</t>
-  </si>
-  <si>
-    <t>#2023081400021
-OPEN</t>
-  </si>
-  <si>
-    <t>OPEN</t>
-  </si>
-  <si>
-    <t>2023-08-14 19:10:24</t>
-  </si>
-  <si>
-    <t>REPAIRS_009_Verify_Past_Repair_Prices</t>
-  </si>
-  <si>
-    <t>Invoice Date
-Net Sales Value
-Cost Value</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2023-08-14 19:10:45</t>
-  </si>
-  <si>
-    <t>REPAIRS_017_VerifyFileUpload_Repairs</t>
-  </si>
-  <si>
-    <t>Document Uploaded successfully</t>
-  </si>
-  <si>
-    <t>2023-08-14 19:09:11</t>
-  </si>
-  <si>
-    <t>REPAIRS_020_VerifyAddNewItem</t>
-  </si>
-  <si>
-    <t>Repair Items (0)</t>
-  </si>
-  <si>
-    <t>2023-08-14 19:09:19</t>
-  </si>
-  <si>
-    <t>REPAIRS_021_Verify_Delete_Row_In Add New Items</t>
-  </si>
-  <si>
-    <t>Row Deleted Successfully</t>
-  </si>
-  <si>
-    <t>2023-08-14 19:09:22</t>
-  </si>
-  <si>
-    <t>REPAIRS_022_Verify_Add_Another_Row_In Add New Items</t>
-  </si>
-  <si>
-    <t>Row Added Successfully</t>
-  </si>
-  <si>
-    <t>2023-08-14 19:09:27</t>
+    <t>2023-08-24 10:31:58</t>
+  </si>
+  <si>
+    <t>Verify INDU008 discount codes Count</t>
+  </si>
+  <si>
+    <t>Actual products count 222</t>
+  </si>
+  <si>
+    <t>Expected products count 35,566</t>
+  </si>
+  <si>
+    <t>2023-08-24 10:32:39</t>
+  </si>
+  <si>
+    <t>Verify INDU008 products Count</t>
+  </si>
+  <si>
+    <t>Actual products count 35,566</t>
+  </si>
+  <si>
+    <t>2023-08-24 10:32:01</t>
+  </si>
+  <si>
+    <t>Verify MENC001 discount codes Count</t>
+  </si>
+  <si>
+    <t>Actual products count 3</t>
+  </si>
+  <si>
+    <t>Expected products count 12,308</t>
+  </si>
+  <si>
+    <t>2023-08-24 10:32:42</t>
+  </si>
+  <si>
+    <t>Verify MENC001 products Count</t>
+  </si>
+  <si>
+    <t>Actual products count 12,308</t>
+  </si>
+  <si>
+    <t>2023-08-24 10:32:03</t>
+  </si>
+  <si>
+    <t>Verify MICR001 discount codes Count</t>
+  </si>
+  <si>
+    <t>Actual products count 6</t>
+  </si>
+  <si>
+    <t>Expected products count 672</t>
+  </si>
+  <si>
+    <t>2023-08-24 10:32:44</t>
+  </si>
+  <si>
+    <t>Verify MICR001 products Count</t>
+  </si>
+  <si>
+    <t>Actual products count 672</t>
+  </si>
+  <si>
+    <t>2023-08-24 10:32:05</t>
+  </si>
+  <si>
+    <t>Verify OMRO001 discount codes Count</t>
+  </si>
+  <si>
+    <t>Actual products count 186</t>
+  </si>
+  <si>
+    <t>Expected products count 45,644</t>
+  </si>
+  <si>
+    <t>2023-08-24 10:32:46</t>
+  </si>
+  <si>
+    <t>Verify OMRO001 products Count</t>
+  </si>
+  <si>
+    <t>Actual products count 45,644</t>
+  </si>
+  <si>
+    <t>2023-08-24 10:32:08</t>
+  </si>
+  <si>
+    <t>Verify PARK001 discount codes Count</t>
+  </si>
+  <si>
+    <t>Actual products count 1,590</t>
+  </si>
+  <si>
+    <t>Expected products count 13,141</t>
+  </si>
+  <si>
+    <t>2023-08-24 10:32:49</t>
+  </si>
+  <si>
+    <t>Verify PARK001 products Count</t>
+  </si>
+  <si>
+    <t>Actual products count 13,141</t>
+  </si>
+  <si>
+    <t>2023-08-24 10:32:10</t>
+  </si>
+  <si>
+    <t>Verify PATL001 discount codes Count</t>
+  </si>
+  <si>
+    <t>Expected products count 2,434</t>
+  </si>
+  <si>
+    <t>2023-08-24 10:32:51</t>
+  </si>
+  <si>
+    <t>Verify PATL001 products Count</t>
+  </si>
+  <si>
+    <t>Actual products count 2,434</t>
+  </si>
+  <si>
+    <t>2023-08-24 10:32:12</t>
+  </si>
+  <si>
+    <t>Verify ROBO002 discount codes Count</t>
+  </si>
+  <si>
+    <t>Expected products count 213</t>
+  </si>
+  <si>
+    <t>2023-08-24 10:32:53</t>
+  </si>
+  <si>
+    <t>Verify ROBO002 products Count</t>
+  </si>
+  <si>
+    <t>Actual products count 213</t>
+  </si>
+  <si>
+    <t>2023-08-24 10:32:15</t>
+  </si>
+  <si>
+    <t>Verify SAGI001 discount codes Count</t>
+  </si>
+  <si>
+    <t>Actual products count 96</t>
+  </si>
+  <si>
+    <t>Expected products count 3,366</t>
+  </si>
+  <si>
+    <t>2023-08-24 10:32:56</t>
+  </si>
+  <si>
+    <t>Verify SAGI001 products Count</t>
+  </si>
+  <si>
+    <t>Actual products count 3,366</t>
+  </si>
+  <si>
+    <t>2023-08-24 10:32:17</t>
+  </si>
+  <si>
+    <t>Verify SMCC001 discount codes Count</t>
+  </si>
+  <si>
+    <t>Actual products count 2,691</t>
+  </si>
+  <si>
+    <t>Expected products count 848,346</t>
+  </si>
+  <si>
+    <t>2023-08-24 10:32:58</t>
+  </si>
+  <si>
+    <t>Verify SMCC001 products Count</t>
+  </si>
+  <si>
+    <t>Actual products count 848,346</t>
+  </si>
+  <si>
+    <t>2023-08-24 10:32:19</t>
+  </si>
+  <si>
+    <t>Verify WAGO001 discount codes Count</t>
+  </si>
+  <si>
+    <t>Actual products count 15</t>
+  </si>
+  <si>
+    <t>Expected products count 18,216</t>
+  </si>
+  <si>
+    <t>2023-08-24 10:33:00</t>
+  </si>
+  <si>
+    <t>Verify WAGO001 products Count</t>
+  </si>
+  <si>
+    <t>Actual products count 18,216</t>
+  </si>
+  <si>
+    <t>2023-08-24 10:32:21</t>
+  </si>
+  <si>
+    <t>Verify WEIN001 discount codes Count</t>
+  </si>
+  <si>
+    <t>Expected products count 75</t>
+  </si>
+  <si>
+    <t>2023-08-24 10:33:02</t>
+  </si>
+  <si>
+    <t>Verify WEIN001 products Count</t>
+  </si>
+  <si>
+    <t>Actual products count 75</t>
+  </si>
+  <si>
+    <t>2023-08-24 10:32:24</t>
+  </si>
+  <si>
+    <t>Verify YASK001 discount codes Count</t>
+  </si>
+  <si>
+    <t>Actual products count 12</t>
+  </si>
+  <si>
+    <t>Expected products count 2,978</t>
+  </si>
+  <si>
+    <t>2023-08-24 10:33:05</t>
+  </si>
+  <si>
+    <t>Verify YASK001 products Count</t>
+  </si>
+  <si>
+    <t>Actual products count 2,978</t>
+  </si>
+  <si>
+    <t>2023-08-24 10:32:26</t>
   </si>
 </sst>
 </file>
@@ -229,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane ySplit="1.0" state="frozen" topLeftCell="G2" activePane="bottomRight" xSplit="6.0"/>
@@ -301,13 +444,13 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -324,7 +467,7 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -333,7 +476,7 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -341,22 +484,22 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
@@ -364,13 +507,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -379,7 +522,7 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
@@ -387,22 +530,22 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
@@ -410,13 +553,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -425,7 +568,7 @@
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
@@ -433,22 +576,22 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
         <v>34</v>
       </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
@@ -456,13 +599,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -471,7 +614,7 @@
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
         <v>13</v>
@@ -479,22 +622,22 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
         <v>41</v>
       </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
@@ -502,13 +645,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -517,7 +660,7 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
@@ -525,24 +668,346 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
         <v>48</v>
       </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
       <c r="D13" t="s">
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Buzzworld_InternalPortal/tcfile.xlsx
+++ b/Buzzworld_InternalPortal/tcfile.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="151">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -35,280 +35,450 @@
     <t>Environment</t>
   </si>
   <si>
-    <t>Verify BACO001 discount codes Count</t>
-  </si>
-  <si>
-    <t>Actual products count 16</t>
-  </si>
-  <si>
-    <t>Expected products count 7,112</t>
-  </si>
-  <si>
-    <t>PricingPage</t>
+    <t>QUOTES_001_VerifyCreateQuote</t>
+  </si>
+  <si>
+    <t>#2023092700011
+OPEN</t>
+  </si>
+  <si>
+    <t>OPEN</t>
+  </si>
+  <si>
+    <t>QuotesPage</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>2023-09-27 13:43:35</t>
+  </si>
+  <si>
+    <t>QA Instance</t>
+  </si>
+  <si>
+    <t>QUOTES_002_VerifySelectItemToQuote</t>
+  </si>
+  <si>
+    <t>Quote Items (0)</t>
+  </si>
+  <si>
+    <t>Quote Items (1)</t>
+  </si>
+  <si>
+    <t>2023-09-27 13:44:15</t>
+  </si>
+  <si>
+    <t>QUOTES_003_VerifyLeadTimeDisplayedOrNot</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>2023-09-27 13:44:31</t>
+  </si>
+  <si>
+    <t>QUOTES_004_VerifyBulkEdit</t>
+  </si>
+  <si>
+    <t>Displayed Discount is 32.23 %</t>
+  </si>
+  <si>
+    <t>Applied Discount is 32.23 %</t>
+  </si>
+  <si>
+    <t>2023-09-27 13:44:47</t>
+  </si>
+  <si>
+    <t>QUOTES_005_VerifySubmitForInternalApproval</t>
+  </si>
+  <si>
+    <t>#2023092700011
+PENDING APPROVAL</t>
+  </si>
+  <si>
+    <t>PENDING APPROVAL</t>
+  </si>
+  <si>
+    <t>2023-09-27 13:45:20</t>
+  </si>
+  <si>
+    <t>QUOTES_006_Verify_Display_TheReviseQuote_When_Quote_Is_Pending_Approval</t>
+  </si>
+  <si>
+    <t>Revise Quote button is Displayed ..? true</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2023-09-27 13:45:22</t>
+  </si>
+  <si>
+    <t>QUOTES_007_VerifyApproveButton</t>
+  </si>
+  <si>
+    <t>#2023092700011
+APPROVED</t>
+  </si>
+  <si>
+    <t>APPROVED</t>
+  </si>
+  <si>
+    <t>2023-09-27 13:45:46</t>
+  </si>
+  <si>
+    <t>QUOTES_008_VerifySubmitForCustomerApproval</t>
+  </si>
+  <si>
+    <t>#2023092700011
+DELIVERED TO CUSTOMER</t>
+  </si>
+  <si>
+    <t>DELIVERED TO CUSTOMER</t>
+  </si>
+  <si>
+    <t>2023-09-27 13:45:53</t>
+  </si>
+  <si>
+    <t>QUOTES_009_VerifyQuoteWon</t>
+  </si>
+  <si>
+    <t>#2023092700011
+Option 1
+WON</t>
+  </si>
+  <si>
+    <t>WON</t>
+  </si>
+  <si>
+    <t>2023-09-27 13:46:02</t>
+  </si>
+  <si>
+    <t>QUOTES_010_VerifyCreateSalesOrder</t>
+  </si>
+  <si>
+    <t>Not Executed...</t>
+  </si>
+  <si>
+    <t>2023-09-27 13:46:37</t>
+  </si>
+  <si>
+    <t>QUOTES_011_VerifyCreateJobFromQuote</t>
+  </si>
+  <si>
+    <t>QUOTES_012_Verify_Quote_Lost</t>
+  </si>
+  <si>
+    <t>#2023092700012
+LOST</t>
+  </si>
+  <si>
+    <t>LOST</t>
+  </si>
+  <si>
+    <t>2023-09-27 13:47:50</t>
+  </si>
+  <si>
+    <t>QUOTES_013_VerifyPrintFunctionality</t>
+  </si>
+  <si>
+    <t>Print working in Quotes Detailed Page.</t>
+  </si>
+  <si>
+    <t>2023-09-27 13:44:21</t>
+  </si>
+  <si>
+    <t>QUOTES_014_VerifySearchByQuoteId</t>
+  </si>
+  <si>
+    <t>2023053100074</t>
+  </si>
+  <si>
+    <t>2023-09-27 13:41:04</t>
+  </si>
+  <si>
+    <t>QUOTES_015_VerifySearchByCompanyName</t>
+  </si>
+  <si>
+    <t>123 E Doty Corporation</t>
+  </si>
+  <si>
+    <t>2023-09-27 13:41:21</t>
+  </si>
+  <si>
+    <t>QUOTES_016_VerifySearchBySalesPersonName</t>
+  </si>
+  <si>
+    <t>Frontier</t>
+  </si>
+  <si>
+    <t>2023-09-27 13:41:39</t>
+  </si>
+  <si>
+    <t>QUOTES_017_VerifySearchByEmail</t>
+  </si>
+  <si>
+    <t>pete.soto@motion-ind.com</t>
+  </si>
+  <si>
+    <t>Quote.Requested.By
+*
+Pete.Soto</t>
   </si>
   <si>
     <t>Failed</t>
   </si>
   <si>
-    <t>2023-08-24 10:32:37</t>
-  </si>
-  <si>
-    <t>QA Instance</t>
-  </si>
-  <si>
-    <t>Verify BACO001 products Count</t>
-  </si>
-  <si>
-    <t>Actual products count 7,112</t>
-  </si>
-  <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>2023-08-24 10:31:58</t>
-  </si>
-  <si>
-    <t>Verify INDU008 discount codes Count</t>
-  </si>
-  <si>
-    <t>Actual products count 222</t>
-  </si>
-  <si>
-    <t>Expected products count 35,566</t>
-  </si>
-  <si>
-    <t>2023-08-24 10:32:39</t>
-  </si>
-  <si>
-    <t>Verify INDU008 products Count</t>
-  </si>
-  <si>
-    <t>Actual products count 35,566</t>
-  </si>
-  <si>
-    <t>2023-08-24 10:32:01</t>
-  </si>
-  <si>
-    <t>Verify MENC001 discount codes Count</t>
-  </si>
-  <si>
-    <t>Actual products count 3</t>
-  </si>
-  <si>
-    <t>Expected products count 12,308</t>
-  </si>
-  <si>
-    <t>2023-08-24 10:32:42</t>
-  </si>
-  <si>
-    <t>Verify MENC001 products Count</t>
-  </si>
-  <si>
-    <t>Actual products count 12,308</t>
-  </si>
-  <si>
-    <t>2023-08-24 10:32:03</t>
-  </si>
-  <si>
-    <t>Verify MICR001 discount codes Count</t>
-  </si>
-  <si>
-    <t>Actual products count 6</t>
-  </si>
-  <si>
-    <t>Expected products count 672</t>
-  </si>
-  <si>
-    <t>2023-08-24 10:32:44</t>
-  </si>
-  <si>
-    <t>Verify MICR001 products Count</t>
-  </si>
-  <si>
-    <t>Actual products count 672</t>
-  </si>
-  <si>
-    <t>2023-08-24 10:32:05</t>
-  </si>
-  <si>
-    <t>Verify OMRO001 discount codes Count</t>
-  </si>
-  <si>
-    <t>Actual products count 186</t>
-  </si>
-  <si>
-    <t>Expected products count 45,644</t>
-  </si>
-  <si>
-    <t>2023-08-24 10:32:46</t>
-  </si>
-  <si>
-    <t>Verify OMRO001 products Count</t>
-  </si>
-  <si>
-    <t>Actual products count 45,644</t>
-  </si>
-  <si>
-    <t>2023-08-24 10:32:08</t>
-  </si>
-  <si>
-    <t>Verify PARK001 discount codes Count</t>
-  </si>
-  <si>
-    <t>Actual products count 1,590</t>
-  </si>
-  <si>
-    <t>Expected products count 13,141</t>
-  </si>
-  <si>
-    <t>2023-08-24 10:32:49</t>
-  </si>
-  <si>
-    <t>Verify PARK001 products Count</t>
-  </si>
-  <si>
-    <t>Actual products count 13,141</t>
-  </si>
-  <si>
-    <t>2023-08-24 10:32:10</t>
-  </si>
-  <si>
-    <t>Verify PATL001 discount codes Count</t>
-  </si>
-  <si>
-    <t>Expected products count 2,434</t>
-  </si>
-  <si>
-    <t>2023-08-24 10:32:51</t>
-  </si>
-  <si>
-    <t>Verify PATL001 products Count</t>
-  </si>
-  <si>
-    <t>Actual products count 2,434</t>
-  </si>
-  <si>
-    <t>2023-08-24 10:32:12</t>
-  </si>
-  <si>
-    <t>Verify ROBO002 discount codes Count</t>
-  </si>
-  <si>
-    <t>Expected products count 213</t>
-  </si>
-  <si>
-    <t>2023-08-24 10:32:53</t>
-  </si>
-  <si>
-    <t>Verify ROBO002 products Count</t>
-  </si>
-  <si>
-    <t>Actual products count 213</t>
-  </si>
-  <si>
-    <t>2023-08-24 10:32:15</t>
-  </si>
-  <si>
-    <t>Verify SAGI001 discount codes Count</t>
-  </si>
-  <si>
-    <t>Actual products count 96</t>
-  </si>
-  <si>
-    <t>Expected products count 3,366</t>
-  </si>
-  <si>
-    <t>2023-08-24 10:32:56</t>
-  </si>
-  <si>
-    <t>Verify SAGI001 products Count</t>
-  </si>
-  <si>
-    <t>Actual products count 3,366</t>
-  </si>
-  <si>
-    <t>2023-08-24 10:32:17</t>
-  </si>
-  <si>
-    <t>Verify SMCC001 discount codes Count</t>
-  </si>
-  <si>
-    <t>Actual products count 2,691</t>
-  </si>
-  <si>
-    <t>Expected products count 848,346</t>
-  </si>
-  <si>
-    <t>2023-08-24 10:32:58</t>
-  </si>
-  <si>
-    <t>Verify SMCC001 products Count</t>
-  </si>
-  <si>
-    <t>Actual products count 848,346</t>
-  </si>
-  <si>
-    <t>2023-08-24 10:32:19</t>
-  </si>
-  <si>
-    <t>Verify WAGO001 discount codes Count</t>
-  </si>
-  <si>
-    <t>Actual products count 15</t>
-  </si>
-  <si>
-    <t>Expected products count 18,216</t>
-  </si>
-  <si>
-    <t>2023-08-24 10:33:00</t>
-  </si>
-  <si>
-    <t>Verify WAGO001 products Count</t>
-  </si>
-  <si>
-    <t>Actual products count 18,216</t>
-  </si>
-  <si>
-    <t>2023-08-24 10:32:21</t>
-  </si>
-  <si>
-    <t>Verify WEIN001 discount codes Count</t>
-  </si>
-  <si>
-    <t>Expected products count 75</t>
-  </si>
-  <si>
-    <t>2023-08-24 10:33:02</t>
-  </si>
-  <si>
-    <t>Verify WEIN001 products Count</t>
-  </si>
-  <si>
-    <t>Actual products count 75</t>
-  </si>
-  <si>
-    <t>2023-08-24 10:32:24</t>
-  </si>
-  <si>
-    <t>Verify YASK001 discount codes Count</t>
-  </si>
-  <si>
-    <t>Actual products count 12</t>
-  </si>
-  <si>
-    <t>Expected products count 2,978</t>
-  </si>
-  <si>
-    <t>2023-08-24 10:33:05</t>
-  </si>
-  <si>
-    <t>Verify YASK001 products Count</t>
-  </si>
-  <si>
-    <t>Actual products count 2,978</t>
-  </si>
-  <si>
-    <t>2023-08-24 10:32:26</t>
+    <t>2023-09-27 13:41:57</t>
+  </si>
+  <si>
+    <t>QUOTES_018_VerifyFiltersInQuotesListView</t>
+  </si>
+  <si>
+    <t>No Quotes for Parts Found!</t>
+  </si>
+  <si>
+    <t>2023-09-27 13:42:33</t>
+  </si>
+  <si>
+    <t>QUOTES_019_VerifyFiltersStateMaintanance</t>
+  </si>
+  <si>
+    <t>Filter State Maintanance working.</t>
+  </si>
+  <si>
+    <t>2023-09-27 13:42:57</t>
+  </si>
+  <si>
+    <t>QUOTES_020_VerifyResetandClearButtonInFiltersPage</t>
+  </si>
+  <si>
+    <t>Search By Company Name</t>
+  </si>
+  <si>
+    <t>2023-09-27 13:43:11</t>
+  </si>
+  <si>
+    <t>QUOTES_021_VerifyReOpen_ButtonInQuoteDetailePage</t>
+  </si>
+  <si>
+    <t>#2023092700016
+OPEN</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>2023-09-27 13:50:58</t>
+  </si>
+  <si>
+    <t>QUOTES_022_VerifyClose_ButtonInQuoteDetailePage</t>
+  </si>
+  <si>
+    <t>#2023092700016
+CLOSED</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>2023-09-27 13:51:14</t>
+  </si>
+  <si>
+    <t>QUOTES_023_VerifyDeleteIconInQuoteItems</t>
+  </si>
+  <si>
+    <t>2023-09-27 13:44:04</t>
+  </si>
+  <si>
+    <t>QUOTES_024_VerifyEditIconInQuoteItems</t>
+  </si>
+  <si>
+    <t>Quantity:
+13</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2023-09-27 13:44:41</t>
+  </si>
+  <si>
+    <t>QUOTES_025_Verify_AddOptionInQuoteDetailedView</t>
+  </si>
+  <si>
+    <t>Option 2</t>
+  </si>
+  <si>
+    <t>2023-09-27 13:50:14</t>
+  </si>
+  <si>
+    <t>QUOTES_026_VerifyQuoteClone_QuotesForParts</t>
+  </si>
+  <si>
+    <t>before clone quote type is System Quote</t>
+  </si>
+  <si>
+    <t>after clone quote type is Parts Quote</t>
+  </si>
+  <si>
+    <t>2023-09-27 13:48:08</t>
+  </si>
+  <si>
+    <t>QUOTES_027_VerifyPrices_In_Grid_and_Detailed_View_2023092600001</t>
+  </si>
+  <si>
+    <t>In grid price $7,444.00</t>
+  </si>
+  <si>
+    <t>In detail view price $7,444.00</t>
+  </si>
+  <si>
+    <t>2023-09-27 13:38:17</t>
+  </si>
+  <si>
+    <t>QUOTES_028_Verify_Items_Line_Order_After_Clone</t>
+  </si>
+  <si>
+    <t>after clone order is [PN1234, NX-TS3201, PN1234, PN1234, PN1234]</t>
+  </si>
+  <si>
+    <t>before clone order is [PN1234, NX-TS3201, PN1234, PN1234, PN1234]</t>
+  </si>
+  <si>
+    <t>2023-09-27 13:39:02</t>
+  </si>
+  <si>
+    <t>QUOTES_029_VerifyPrices_In_Grid_and_Detailed_View_After and Before_Clone</t>
+  </si>
+  <si>
+    <t>after clone total price in det $7,980.00</t>
+  </si>
+  <si>
+    <t>before clone total price in detail view $7,444.00</t>
+  </si>
+  <si>
+    <t>2023-09-27 13:39:03</t>
+  </si>
+  <si>
+    <t>QUOTES_030_VerifyPrices_In_Grid_and_Detailed_View_After_Clone_2023092700009</t>
+  </si>
+  <si>
+    <t>In grid price $7,980.00</t>
+  </si>
+  <si>
+    <t>In detail view price $7,980.00</t>
+  </si>
+  <si>
+    <t>2023-09-27 13:38:56</t>
+  </si>
+  <si>
+    <t>QUOTES_031_Verify_Change_Items_Order</t>
+  </si>
+  <si>
+    <t>before change the items order [123413A-2, 12342-000, 12343-000]</t>
+  </si>
+  <si>
+    <t>after change the items order [12342-000, 123413A-2, 12343-000]</t>
+  </si>
+  <si>
+    <t>2023-09-27 13:40:03</t>
+  </si>
+  <si>
+    <t>QUOTES_032_VerifyUpdateQuoteType</t>
+  </si>
+  <si>
+    <t>before update quote type is System Quote</t>
+  </si>
+  <si>
+    <t>After update quote type is Parts Quote</t>
+  </si>
+  <si>
+    <t>2023-09-27 13:43:44</t>
+  </si>
+  <si>
+    <t>QUOTES_033_VerifyAllQuotes_with_Count</t>
+  </si>
+  <si>
+    <t>All Quotes count in grid is 1447</t>
+  </si>
+  <si>
+    <t>Parts, Repair and System Quotes count in grid is 1447</t>
+  </si>
+  <si>
+    <t>2023-09-27 13:40:44</t>
+  </si>
+  <si>
+    <t>QUOTES_034_VerifyQuoteClone_QuotesForRepairs</t>
+  </si>
+  <si>
+    <t>Quote Type is Parts Quote</t>
+  </si>
+  <si>
+    <t>Quote status is #2023092700015
+OPEN</t>
+  </si>
+  <si>
+    <t>2023-09-27 13:49:24</t>
+  </si>
+  <si>
+    <t>QUOTES_035_Verify_Decline_QuotesForParts</t>
+  </si>
+  <si>
+    <t>#2023092700016
+REJECTED</t>
+  </si>
+  <si>
+    <t>REJECTED</t>
+  </si>
+  <si>
+    <t>2023-09-27 13:50:50</t>
+  </si>
+  <si>
+    <t>QUOTES_036_Verify_Edit_Manifacturer_Adding_New_Item</t>
+  </si>
+  <si>
+    <t>before edit vendor is INNOVATIVE IDM</t>
+  </si>
+  <si>
+    <t>after edit vendor is HAMMOND MFG-ENCLOSURES</t>
+  </si>
+  <si>
+    <t>2023-09-27 13:37:42</t>
+  </si>
+  <si>
+    <t>QUOTES_037_Verify_Add_New_Item</t>
+  </si>
+  <si>
+    <t>QUOTES_038_Verify_Edit_Manifacturer_Already_Added_Item</t>
+  </si>
+  <si>
+    <t>before edit Manifacturer is MENCOM CORPORATION</t>
+  </si>
+  <si>
+    <t>after edit Manifacturer is MENCOM CORPORATION</t>
+  </si>
+  <si>
+    <t>2023-09-27 13:37:55</t>
+  </si>
+  <si>
+    <t>QUOTES_039_Verify_GP_Value</t>
+  </si>
+  <si>
+    <t>actual gp 22.41</t>
+  </si>
+  <si>
+    <t>expected gp 22.41</t>
+  </si>
+  <si>
+    <t>QUOTES_040_Verify_discount_Value</t>
+  </si>
+  <si>
+    <t>actual discount 42.0</t>
+  </si>
+  <si>
+    <t>expected discount 42.0</t>
   </si>
 </sst>
 </file>
@@ -372,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane ySplit="1.0" state="frozen" topLeftCell="G2" activePane="bottomRight" xSplit="6.0"/>
@@ -444,13 +614,13 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -467,16 +637,16 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
         <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -484,19 +654,19 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
@@ -536,16 +706,16 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
@@ -553,13 +723,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -568,7 +738,7 @@
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
@@ -576,22 +746,22 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
@@ -599,13 +769,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -614,7 +784,7 @@
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s">
         <v>13</v>
@@ -622,22 +792,22 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
@@ -645,22 +815,22 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
         <v>46</v>
       </c>
-      <c r="B12" t="s">
+      <c r="F12" t="s">
         <v>47</v>
-      </c>
-      <c r="C12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>49</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
@@ -668,19 +838,19 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
         <v>50</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>51</v>
       </c>
-      <c r="C13" t="s">
-        <v>48</v>
-      </c>
       <c r="D13" t="s">
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
         <v>52</v>
@@ -694,10 +864,10 @@
         <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -720,13 +890,13 @@
         <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
         <v>58</v>
@@ -740,7 +910,7 @@
         <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
         <v>60</v>
@@ -766,13 +936,13 @@
         <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
         <v>64</v>
@@ -795,10 +965,10 @@
         <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="F18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G18" t="s">
         <v>13</v>
@@ -806,22 +976,22 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="F19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G19" t="s">
         <v>13</v>
@@ -829,13 +999,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
@@ -858,13 +1028,13 @@
         <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
         <v>78</v>
@@ -904,16 +1074,16 @@
         <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D23" t="s">
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G23" t="s">
         <v>13</v>
@@ -921,13 +1091,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
         <v>10</v>
@@ -950,16 +1120,16 @@
         <v>90</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G25" t="s">
         <v>13</v>
@@ -967,10 +1137,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C26" t="s">
         <v>94</v>
@@ -996,18 +1166,340 @@
         <v>97</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D27" t="s">
         <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" t="s">
+        <v>107</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" t="s">
+        <v>111</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>115</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" t="s">
+        <v>119</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
+        <v>123</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>124</v>
+      </c>
+      <c r="B34" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
+        <v>127</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" t="s">
+        <v>131</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>132</v>
+      </c>
+      <c r="B36" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" t="s">
+        <v>135</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" t="s">
+        <v>139</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>140</v>
+      </c>
+      <c r="B38" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" t="s">
+        <v>138</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" t="s">
+        <v>139</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>141</v>
+      </c>
+      <c r="B39" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" t="s">
+        <v>143</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" t="s">
+        <v>144</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>145</v>
+      </c>
+      <c r="B40" t="s">
+        <v>146</v>
+      </c>
+      <c r="C40" t="s">
+        <v>147</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>148</v>
+      </c>
+      <c r="B41" t="s">
+        <v>149</v>
+      </c>
+      <c r="C41" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Buzzworld_InternalPortal/tcfile.xlsx
+++ b/Buzzworld_InternalPortal/tcfile.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="196">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -35,6 +35,117 @@
     <t>Environment</t>
   </si>
   <si>
+    <t>PRICING_001_VerifyAddProduct</t>
+  </si>
+  <si>
+    <t>124239</t>
+  </si>
+  <si>
+    <t>PricingPage</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:43:04</t>
+  </si>
+  <si>
+    <t>QA Instance</t>
+  </si>
+  <si>
+    <t>PRICING_002_VerifyUpdateProduct</t>
+  </si>
+  <si>
+    <t>before update List Price is 82.18</t>
+  </si>
+  <si>
+    <t>after update List Price is 92.18</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:50:56</t>
+  </si>
+  <si>
+    <t>PRICING_003_VerifyAddDiscountCode</t>
+  </si>
+  <si>
+    <t>124316</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:43:32</t>
+  </si>
+  <si>
+    <t>PRICING_004_VerifyUpdateDiscountCode</t>
+  </si>
+  <si>
+    <t>before update Our Price value is 4.25</t>
+  </si>
+  <si>
+    <t>after update Our Price value is 5.25</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:51:18</t>
+  </si>
+  <si>
+    <t>PRICING_005_VerifyImport</t>
+  </si>
+  <si>
+    <t>Imported Data Successfully</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:52:10</t>
+  </si>
+  <si>
+    <t>PRICING_006_VerifyBuyPrice_SellPrice_InSpecialPricing_BuyPrice_Null_PurchaseDiscount_Not_Null</t>
+  </si>
+  <si>
+    <t>actual buy price 104.45 expected buy price 104.445</t>
+  </si>
+  <si>
+    <t>actual sell price 155.62 expected sell price 155.62</t>
+  </si>
+  <si>
+    <t>NonStandardPricingPage</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:53:09</t>
+  </si>
+  <si>
+    <t>PRICING_007_VerifyBuyPrice_SellPrice_InSpecialPricing_BuyPrice_PurchaseDiscount_Null</t>
+  </si>
+  <si>
+    <t>actual buy price 0.0 expected buy price 0.0</t>
+  </si>
+  <si>
+    <t>actual sell price 112.28 expected sell price 112.28</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:54:06</t>
+  </si>
+  <si>
+    <t>PRICING_008_VerifyBuyPrice_SellPrice_InSpecialPricing_BuyPrice_PurchaseDiscount_Not_Null</t>
+  </si>
+  <si>
+    <t>actual buy price 267.0 expected buy price 267.0</t>
+  </si>
+  <si>
+    <t>actual sell price 317.73 expected sell price 317.73</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:55:05</t>
+  </si>
+  <si>
+    <t>PRICING_022_Verify_Delete_SPA_Logs</t>
+  </si>
+  <si>
+    <t>Actual Text SPA Logs Not Available</t>
+  </si>
+  <si>
+    <t>Expected Text SPA Logs Not Available</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:40:43</t>
+  </si>
+  <si>
     <t>PRICING_023_Verify_Import Buy Side Data</t>
   </si>
   <si>
@@ -44,79 +155,451 @@
     <t/>
   </si>
   <si>
-    <t>PricingPage</t>
-  </si>
-  <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>2023-09-29 11:47:32</t>
-  </si>
-  <si>
-    <t>QA Instance</t>
-  </si>
-  <si>
-    <t>2023-09-29 11:59:15</t>
+    <t>2023-09-29 12:41:04</t>
   </si>
   <si>
     <t>PRICING_024_Verify_Import Sell Side Data</t>
   </si>
   <si>
-    <t>2023-09-29 11:47:53</t>
-  </si>
-  <si>
-    <t>2023-09-29 11:59:36</t>
+    <t>2023-09-29 12:41:25</t>
   </si>
   <si>
     <t>PRICING_025_Verifying_FSP is not Null, SP is not Null and Buy price is not Null we display the FSP as Quote Price</t>
   </si>
   <si>
+    <t>Quote Price 198.09</t>
+  </si>
+  <si>
+    <t>FSP is 281.50 SP is 845.42 Buy Price is 1023.41</t>
+  </si>
+  <si>
+    <t>Non_Standard_Pricing_Page</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:41:53</t>
+  </si>
+  <si>
+    <t>PRICING_026_Verifying_FSP is Null, Sp is Null and  Buy price is not Null we display the Buy Price as Quote Price</t>
+  </si>
+  <si>
     <t>Quote Price 281.50</t>
   </si>
   <si>
-    <t>FSP is 281.50 SP is 845.42 Buy Price is 1023.41</t>
-  </si>
-  <si>
-    <t>Non_Standard_Pricing_Page</t>
-  </si>
-  <si>
-    <t>2023-09-29 12:00:04</t>
-  </si>
-  <si>
-    <t>PRICING_026_Verifying_FSP is Null, Sp is Null and  Buy price is not Null we display the Buy Price as Quote Price</t>
+    <t>FSP is  SP is  Buy Price is 672.86</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:42:07</t>
+  </si>
+  <si>
+    <t>PRICING_027_Verifying_FSP is Null, SP is not Null, Buy price is not Null we display the SP as Quote Price</t>
   </si>
   <si>
     <t>Quote Price 672.86</t>
   </si>
   <si>
-    <t>FSP is  SP is  Buy Price is 672.86</t>
-  </si>
-  <si>
-    <t>2023-09-29 12:00:18</t>
-  </si>
-  <si>
-    <t>PRICING_027_Verifying_FSP is Null, SP is not Null, Buy price is not Null we display the SP as Quote Price</t>
+    <t>FSP is  SP is 830.16 Buy Price is 258.43</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:42:22</t>
+  </si>
+  <si>
+    <t>PRICING_028_Verifying_FSP is not Null, SP is not Null and Buy price is not Null we display the FSP as Quote Price</t>
   </si>
   <si>
     <t>Quote Price 830.16</t>
   </si>
   <si>
-    <t>FSP is  SP is 830.16 Buy Price is 258.43</t>
-  </si>
-  <si>
-    <t>2023-09-29 12:00:33</t>
-  </si>
-  <si>
-    <t>PRICING_028_Verifying_FSP is not Null, SP is not Null and Buy price is not Null we display the FSP as Quote Price</t>
-  </si>
-  <si>
-    <t>Quote Price 198.09</t>
-  </si>
-  <si>
     <t>FSP is 198.09 SP is 930.22 Buy Price is 281.50</t>
   </si>
   <si>
-    <t>2023-09-29 12:00:47</t>
+    <t>2023-09-29 12:42:36</t>
+  </si>
+  <si>
+    <t>Verify BACO001 discount codes Count</t>
+  </si>
+  <si>
+    <t>Actual products count 6.0</t>
+  </si>
+  <si>
+    <t>Expected products count 7013.0</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:37:17</t>
+  </si>
+  <si>
+    <t>Verify BACO001 products Count</t>
+  </si>
+  <si>
+    <t>Actual products count 7108.0</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:33:47</t>
+  </si>
+  <si>
+    <t>Verify EURO001 discount codes Count</t>
+  </si>
+  <si>
+    <t>Actual products count 21.0</t>
+  </si>
+  <si>
+    <t>Expected products count 27976.0</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:37:28</t>
+  </si>
+  <si>
+    <t>Verify EURO001 products Count</t>
+  </si>
+  <si>
+    <t>Actual products count 27967.0</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:33:58</t>
+  </si>
+  <si>
+    <t>Verify HAMM001 discount codes Count</t>
+  </si>
+  <si>
+    <t>Actual products count 105.0</t>
+  </si>
+  <si>
+    <t>Expected products count 15174.0</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:37:38</t>
+  </si>
+  <si>
+    <t>Verify HAMM001 products Count</t>
+  </si>
+  <si>
+    <t>Actual products count 13452.0</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:34:09</t>
+  </si>
+  <si>
+    <t>Verify HAMM002 discount codes Count</t>
+  </si>
+  <si>
+    <t>Actual products count 267.0</t>
+  </si>
+  <si>
+    <t>Expected products count 3548.0</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:37:48</t>
+  </si>
+  <si>
+    <t>Verify HAMM002 products Count</t>
+  </si>
+  <si>
+    <t>Actual products count 3548.0</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:34:20</t>
+  </si>
+  <si>
+    <t>Verify INDU008 discount codes Count</t>
+  </si>
+  <si>
+    <t>Actual products count 222.0</t>
+  </si>
+  <si>
+    <t>Expected products count 35566.0</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:38:09</t>
+  </si>
+  <si>
+    <t>Verify INDU008 products Count</t>
+  </si>
+  <si>
+    <t>Actual products count 35566.0</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:34:41</t>
+  </si>
+  <si>
+    <t>Verify MBKI001 discount codes Count</t>
+  </si>
+  <si>
+    <t>Actual products count 72.0</t>
+  </si>
+  <si>
+    <t>Expected products count 600.0</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:38:20</t>
+  </si>
+  <si>
+    <t>Verify MBKI001 products Count</t>
+  </si>
+  <si>
+    <t>Actual products count 600.0</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:34:51</t>
+  </si>
+  <si>
+    <t>Verify MENC001 discount codes Count</t>
+  </si>
+  <si>
+    <t>Actual products count 3.0</t>
+  </si>
+  <si>
+    <t>Expected products count 12308.0</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:38:30</t>
+  </si>
+  <si>
+    <t>Verify MENC001 products Count</t>
+  </si>
+  <si>
+    <t>Actual products count 12308.0</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:35:02</t>
+  </si>
+  <si>
+    <t>Verify MICR001 discount codes Count</t>
+  </si>
+  <si>
+    <t>Expected products count 672.0</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:38:41</t>
+  </si>
+  <si>
+    <t>Verify MICR001 products Count</t>
+  </si>
+  <si>
+    <t>Actual products count 672.0</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:35:12</t>
+  </si>
+  <si>
+    <t>Verify OMRO001 discount codes Count</t>
+  </si>
+  <si>
+    <t>Actual products count 186.0</t>
+  </si>
+  <si>
+    <t>Expected products count 47090.0</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:38:51</t>
+  </si>
+  <si>
+    <t>Verify OMRO001 products Count</t>
+  </si>
+  <si>
+    <t>Actual products count 45644.0</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:35:23</t>
+  </si>
+  <si>
+    <t>Verify PARK001 discount codes Count</t>
+  </si>
+  <si>
+    <t>Actual products count 1584.0</t>
+  </si>
+  <si>
+    <t>Expected products count 14833.0</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:39:01</t>
+  </si>
+  <si>
+    <t>Verify PARK001 products Count</t>
+  </si>
+  <si>
+    <t>Actual products count 13140.0</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:35:34</t>
+  </si>
+  <si>
+    <t>Verify PATL001 discount codes Count</t>
+  </si>
+  <si>
+    <t>Expected products count 2434.0</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:39:12</t>
+  </si>
+  <si>
+    <t>Verify PATL001 products Count</t>
+  </si>
+  <si>
+    <t>Actual products count 2434.0</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:35:44</t>
+  </si>
+  <si>
+    <t>Verify ROBO002 discount codes Count</t>
+  </si>
+  <si>
+    <t>Expected products count 213.0</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:39:22</t>
+  </si>
+  <si>
+    <t>Verify ROBO002 products Count</t>
+  </si>
+  <si>
+    <t>Actual products count 213.0</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:35:54</t>
+  </si>
+  <si>
+    <t>Verify SAGI001 discount codes Count</t>
+  </si>
+  <si>
+    <t>Actual products count 96.0</t>
+  </si>
+  <si>
+    <t>Expected products count 3366.0</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:39:33</t>
+  </si>
+  <si>
+    <t>Verify SAGI001 products Count</t>
+  </si>
+  <si>
+    <t>Actual products count 5001.0</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:36:05</t>
+  </si>
+  <si>
+    <t>Verify SMCC001 discount codes Count</t>
+  </si>
+  <si>
+    <t>Actual products count 2700.0</t>
+  </si>
+  <si>
+    <t>Expected products count 883424.0</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:39:44</t>
+  </si>
+  <si>
+    <t>Verify SMCC001 products Count</t>
+  </si>
+  <si>
+    <t>Actual products count 890796.0</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:36:16</t>
+  </si>
+  <si>
+    <t>Verify SWIV001 discount codes Count</t>
+  </si>
+  <si>
+    <t>Expected products count 681.0</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:39:54</t>
+  </si>
+  <si>
+    <t>Verify SWIV001 products Count</t>
+  </si>
+  <si>
+    <t>Actual products count 681.0</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:36:26</t>
+  </si>
+  <si>
+    <t>Verify WAGO001 discount codes Count</t>
+  </si>
+  <si>
+    <t>Actual products count 15.0</t>
+  </si>
+  <si>
+    <t>Expected products count 18216.0</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:40:05</t>
+  </si>
+  <si>
+    <t>Verify WAGO001 products Count</t>
+  </si>
+  <si>
+    <t>Actual products count 18216.0</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:36:37</t>
+  </si>
+  <si>
+    <t>Verify WEIN001 discount codes Count</t>
+  </si>
+  <si>
+    <t>Expected products count 77.0</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:40:15</t>
+  </si>
+  <si>
+    <t>Verify WEIN001 products Count</t>
+  </si>
+  <si>
+    <t>Actual products count 75.0</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:36:47</t>
+  </si>
+  <si>
+    <t>Verify WIEG001 discount codes Count</t>
+  </si>
+  <si>
+    <t>Actual products count 12.0</t>
+  </si>
+  <si>
+    <t>Expected products count 5077.0</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:37:59</t>
+  </si>
+  <si>
+    <t>Verify WIEG001 products Count</t>
+  </si>
+  <si>
+    <t>Actual products count 5077.0</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:34:30</t>
+  </si>
+  <si>
+    <t>Verify YASK001 discount codes Count</t>
+  </si>
+  <si>
+    <t>Actual products count 9.0</t>
+  </si>
+  <si>
+    <t>Expected products count 2979.0</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:40:26</t>
+  </si>
+  <si>
+    <t>Verify YASK001 products Count</t>
+  </si>
+  <si>
+    <t>Actual products count 2980.0</t>
+  </si>
+  <si>
+    <t>2023-09-29 12:36:58</t>
   </si>
 </sst>
 </file>
@@ -180,7 +663,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane ySplit="1.0" state="frozen" topLeftCell="G2" activePane="bottomRight" xSplit="6.0"/>
@@ -229,180 +712,1215 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" t="s">
+        <v>99</v>
+      </c>
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>102</v>
+      </c>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" t="s">
+        <v>106</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
+        <v>113</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>116</v>
+      </c>
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" t="s">
+        <v>119</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>120</v>
+      </c>
+      <c r="B32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s">
+        <v>122</v>
+      </c>
+      <c r="G32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" t="s">
+        <v>126</v>
+      </c>
+      <c r="G33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" t="s">
+        <v>129</v>
+      </c>
+      <c r="G34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" t="s">
+        <v>133</v>
+      </c>
+      <c r="G35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" t="s">
+        <v>136</v>
+      </c>
+      <c r="G36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
+        <v>54</v>
+      </c>
+      <c r="F37" t="s">
+        <v>139</v>
+      </c>
+      <c r="G37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>140</v>
+      </c>
+      <c r="B38" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38" t="s">
+        <v>138</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s">
+        <v>142</v>
+      </c>
+      <c r="G38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>54</v>
+      </c>
+      <c r="F39" t="s">
+        <v>145</v>
+      </c>
+      <c r="G39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>146</v>
+      </c>
+      <c r="B40" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" t="s">
+        <v>148</v>
+      </c>
+      <c r="G40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>149</v>
+      </c>
+      <c r="B41" t="s">
+        <v>150</v>
+      </c>
+      <c r="C41" t="s">
+        <v>151</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>54</v>
+      </c>
+      <c r="F41" t="s">
+        <v>152</v>
+      </c>
+      <c r="G41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>153</v>
+      </c>
+      <c r="B42" t="s">
+        <v>154</v>
+      </c>
+      <c r="C42" t="s">
+        <v>151</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>54</v>
+      </c>
+      <c r="F42" t="s">
+        <v>155</v>
+      </c>
+      <c r="G42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>156</v>
+      </c>
+      <c r="B43" t="s">
+        <v>157</v>
+      </c>
+      <c r="C43" t="s">
+        <v>158</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43" t="s">
+        <v>159</v>
+      </c>
+      <c r="G43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>160</v>
+      </c>
+      <c r="B44" t="s">
+        <v>161</v>
+      </c>
+      <c r="C44" t="s">
+        <v>158</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" t="s">
+        <v>54</v>
+      </c>
+      <c r="F44" t="s">
+        <v>162</v>
+      </c>
+      <c r="G44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>163</v>
+      </c>
+      <c r="B45" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" t="s">
+        <v>164</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" t="s">
+        <v>54</v>
+      </c>
+      <c r="F45" t="s">
+        <v>165</v>
+      </c>
+      <c r="G45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>166</v>
+      </c>
+      <c r="B46" t="s">
+        <v>167</v>
+      </c>
+      <c r="C46" t="s">
+        <v>164</v>
+      </c>
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" t="s">
+        <v>168</v>
+      </c>
+      <c r="G46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>169</v>
+      </c>
+      <c r="B47" t="s">
+        <v>170</v>
+      </c>
+      <c r="C47" t="s">
+        <v>171</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" t="s">
+        <v>54</v>
+      </c>
+      <c r="F47" t="s">
+        <v>172</v>
+      </c>
+      <c r="G47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>173</v>
+      </c>
+      <c r="B48" t="s">
+        <v>174</v>
+      </c>
+      <c r="C48" t="s">
+        <v>171</v>
+      </c>
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" t="s">
+        <v>175</v>
+      </c>
+      <c r="G48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>176</v>
+      </c>
+      <c r="B49" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" t="s">
+        <v>177</v>
+      </c>
+      <c r="D49" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" t="s">
+        <v>54</v>
+      </c>
+      <c r="F49" t="s">
+        <v>178</v>
+      </c>
+      <c r="G49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>179</v>
+      </c>
+      <c r="B50" t="s">
+        <v>180</v>
+      </c>
+      <c r="C50" t="s">
+        <v>177</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" t="s">
+        <v>54</v>
+      </c>
+      <c r="F50" t="s">
+        <v>181</v>
+      </c>
+      <c r="G50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>182</v>
+      </c>
+      <c r="B51" t="s">
+        <v>183</v>
+      </c>
+      <c r="C51" t="s">
+        <v>184</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" t="s">
+        <v>54</v>
+      </c>
+      <c r="F51" t="s">
+        <v>185</v>
+      </c>
+      <c r="G51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>186</v>
+      </c>
+      <c r="B52" t="s">
+        <v>187</v>
+      </c>
+      <c r="C52" t="s">
+        <v>184</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" t="s">
+        <v>188</v>
+      </c>
+      <c r="G52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>189</v>
+      </c>
+      <c r="B53" t="s">
+        <v>190</v>
+      </c>
+      <c r="C53" t="s">
+        <v>191</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" t="s">
+        <v>54</v>
+      </c>
+      <c r="F53" t="s">
+        <v>192</v>
+      </c>
+      <c r="G53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>193</v>
+      </c>
+      <c r="B54" t="s">
+        <v>194</v>
+      </c>
+      <c r="C54" t="s">
+        <v>191</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" t="s">
+        <v>54</v>
+      </c>
+      <c r="F54" t="s">
+        <v>195</v>
+      </c>
+      <c r="G54" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Buzzworld_InternalPortal/tcfile.xlsx
+++ b/Buzzworld_InternalPortal/tcfile.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="97">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -35,301 +35,276 @@
     <t>Environment</t>
   </si>
   <si>
-    <t>PRICING_001_VerifyAddProduct</t>
-  </si>
-  <si>
-    <t>160304</t>
-  </si>
-  <si>
-    <t>PricingPage</t>
+    <t>PERMNS_001_Verify_AccountType_Permission_As_None</t>
+  </si>
+  <si>
+    <t>Sorry, you do not have permissions to access this page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top displayed text is </t>
+  </si>
+  <si>
+    <t>Permissions</t>
   </si>
   <si>
     <t>Passed</t>
   </si>
   <si>
-    <t>2023-10-10 16:03:28</t>
+    <t>2023-10-11 14:27:15</t>
   </si>
   <si>
     <t>QA Instance</t>
   </si>
   <si>
-    <t>PRICING_002_VerifyUpdateProduct</t>
-  </si>
-  <si>
-    <t>before update List Price is 92.18</t>
-  </si>
-  <si>
-    <t>after update List Price is 102.18</t>
-  </si>
-  <si>
-    <t>2023-10-10 16:04:19</t>
-  </si>
-  <si>
-    <t>PRICING_003_VerifyAddDiscountCode</t>
-  </si>
-  <si>
-    <t>160340</t>
-  </si>
-  <si>
-    <t>2023-10-10 16:03:56</t>
-  </si>
-  <si>
-    <t>PRICING_004_VerifyUpdateDiscountCode</t>
-  </si>
-  <si>
-    <t>before update Our Price value is 5.25</t>
-  </si>
-  <si>
-    <t>after update Our Price value is 6.25</t>
-  </si>
-  <si>
-    <t>2023-10-10 16:04:41</t>
-  </si>
-  <si>
-    <t>PRICING_005_VerifyImport</t>
-  </si>
-  <si>
-    <t>Imported Data Successfully</t>
-  </si>
-  <si>
-    <t>2023-10-10 16:05:32</t>
-  </si>
-  <si>
-    <t>PRICING_006_VerifyBuyPrice_SellPrice_InSpecialPricing_BuyPrice_Null_PurchaseDiscount_Not_Null</t>
-  </si>
-  <si>
-    <t>actual buy price 158.25 expected buy price 104.445</t>
-  </si>
-  <si>
-    <t>actual sell price 155.62 expected sell price 155.62</t>
-  </si>
-  <si>
-    <t>NonStandardPricingPage</t>
-  </si>
-  <si>
-    <t>2023-10-10 16:15:52</t>
-  </si>
-  <si>
-    <t>PRICING_007_VerifyBuyPrice_SellPrice_InSpecialPricing_BuyPrice_PurchaseDiscount_Null</t>
-  </si>
-  <si>
-    <t>actual buy price 0.0 expected buy price 0.0</t>
-  </si>
-  <si>
-    <t>actual sell price 112.28 expected sell price 112.28</t>
+    <t>PERMNS_002_Verify_Branches_Permission_As_None</t>
+  </si>
+  <si>
+    <t>2023-10-11 14:27:49</t>
+  </si>
+  <si>
+    <t>PERMNS_003_Verify_Classification_Permission_As_None</t>
+  </si>
+  <si>
+    <t>2023-10-11 14:28:22</t>
+  </si>
+  <si>
+    <t>PERMNS_004_Verify_Industry_Permission_As_None</t>
+  </si>
+  <si>
+    <t>2023-10-11 14:28:56</t>
+  </si>
+  <si>
+    <t>PERMNS_005_Verify_Po Min Qty_Permission_As_None</t>
+  </si>
+  <si>
+    <t>2023-10-11 14:29:30</t>
+  </si>
+  <si>
+    <t>PERMNS_006_Verify_Product Class_Permission_As_None</t>
+  </si>
+  <si>
+    <t>2023-10-11 14:30:04</t>
+  </si>
+  <si>
+    <t>PERMNS_007_Verify_QC Control_Permission_As_None</t>
+  </si>
+  <si>
+    <t>Top displayed text is Add</t>
   </si>
   <si>
     <t>Failed</t>
   </si>
   <si>
-    <t>2023-10-10 16:53:19</t>
-  </si>
-  <si>
-    <t>PRICING_008_VerifyBuyPrice_SellPrice_InSpecialPricing_BuyPrice_PurchaseDiscount_Not_Null</t>
-  </si>
-  <si>
-    <t>actual buy price 158.25 expected buy price 267.0</t>
-  </si>
-  <si>
-    <t>actual sell price 317.73 expected sell price 317.73</t>
-  </si>
-  <si>
-    <t>2023-10-10 16:43:48</t>
-  </si>
-  <si>
-    <t>PRICING_009_VerifyBuyPrice_SellPrice_InSpecialPricing_Type_As_Discount</t>
-  </si>
-  <si>
-    <t>actual buy price 158.25 expected buy price 123.0</t>
-  </si>
-  <si>
-    <t>actual sell price 115.52 expected sell price 115.52</t>
-  </si>
-  <si>
-    <t>2023-10-10 16:44:46</t>
-  </si>
-  <si>
-    <t>2023-10-10 16:55:16</t>
-  </si>
-  <si>
-    <t>PRICING_010_VerifyaAddSPItemsToQuotewithAccountType_withFixedPrice</t>
-  </si>
-  <si>
-    <t>actual Sugested price 133.9 expected Sugested price 133.9</t>
-  </si>
-  <si>
-    <t>actual quote price 201.23 expected quote price 201.23</t>
-  </si>
-  <si>
-    <t>2023-10-10 16:57:37</t>
-  </si>
-  <si>
-    <t>PRICING_011_VerifyaAddSPItemsToQuotewithAccountType_withOutFixedPrice</t>
-  </si>
-  <si>
-    <t>actual quote price 131.35 expected quote price 131.35</t>
-  </si>
-  <si>
-    <t>2023-10-10 16:59:53</t>
-  </si>
-  <si>
-    <t>PRICING_012_VerifyAddProduct_DuplicateStockCode</t>
-  </si>
-  <si>
-    <t>The Stock Code already exists.</t>
-  </si>
-  <si>
-    <t>2023-10-10 17:00:16</t>
-  </si>
-  <si>
-    <t>PRICING_013_VerifyAddProduct_EmptyStockCode</t>
-  </si>
-  <si>
-    <t>Please enter Stock Code</t>
-  </si>
-  <si>
-    <t>2023-10-10 17:00:38</t>
-  </si>
-  <si>
-    <t>PRICING_014_VerifyAddProduct_EmptyDiscountCode</t>
-  </si>
-  <si>
-    <t>Please select Discount Code</t>
-  </si>
-  <si>
-    <t>Pass1ed</t>
-  </si>
-  <si>
-    <t>2023-10-10 17:01:00</t>
-  </si>
-  <si>
-    <t>PRICING_015_VerifyAddProduct_EmptyListPrice</t>
-  </si>
-  <si>
-    <t>Please enter List Price</t>
-  </si>
-  <si>
-    <t>2023-10-10 17:01:22</t>
-  </si>
-  <si>
-    <t>PRICING_016_VerifyAddProduct_InvalidListPrice</t>
-  </si>
-  <si>
-    <t>Please enter valid number</t>
-  </si>
-  <si>
-    <t>2023-10-10 17:01:44</t>
-  </si>
-  <si>
-    <t>PRICING_017_VerifyAddProduct_EmptyProductClass</t>
-  </si>
-  <si>
-    <t>Please select Product Class</t>
-  </si>
-  <si>
-    <t>2023-10-10 17:02:06</t>
-  </si>
-  <si>
-    <t>PRICING_018_VerifyUpdateProduct_EmptyListPrice</t>
-  </si>
-  <si>
-    <t>2023-10-10 17:02:20</t>
-  </si>
-  <si>
-    <t>PRICING_019_VerifyUpdateProduct_InvalidListPrice</t>
-  </si>
-  <si>
-    <t>2023-10-10 17:02:34</t>
-  </si>
-  <si>
-    <t>PRICING_020_Verify_isDifferentPricing_CheckBox_Yes_InVendors</t>
-  </si>
-  <si>
-    <t>is different pricing option applied</t>
-  </si>
-  <si>
-    <t>displayed msg is This vendor has different pricing by Branch</t>
-  </si>
-  <si>
-    <t>2023-10-10 17:03:25</t>
-  </si>
-  <si>
-    <t>PRICING_021_Verify_isDifferentPricing_CheckBox_No_InVendors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">displayed msg is </t>
-  </si>
-  <si>
-    <t>2023-10-10 17:04:17</t>
-  </si>
-  <si>
-    <t>PRICING_023_Verify_Import Buy Side Data</t>
-  </si>
-  <si>
-    <t>SPA Imported Successfully Multicam Inc</t>
+    <t>2023-10-11 15:05:03</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2023-10-10 16:01:15</t>
-  </si>
-  <si>
-    <t>PRICING_024_Verify_Import Sell Side Data</t>
-  </si>
-  <si>
-    <t>2023-10-10 16:01:35</t>
-  </si>
-  <si>
-    <t>PRICING_025_Verifying_FSP is not Null, SP is not Null and Buy price is not Null we display the FSP as Quote Price and Buy Prioce as IIDM cost</t>
-  </si>
-  <si>
-    <t>Quote Price 281.50 IIDM cost is 1023.41</t>
-  </si>
-  <si>
-    <t>FSP is 281.50 SP is 845.42 Buy Price is 1023.41</t>
-  </si>
-  <si>
-    <t>Non_Standard_Pricing_Page</t>
-  </si>
-  <si>
-    <t>2023-10-10 16:02:18</t>
-  </si>
-  <si>
-    <t>PRICING_026_Verifying_FSP is Null, Sp is Null and  Buy price is not Null we display the Buy Price as IIDM cost and QP is tasken from at/lp</t>
-  </si>
-  <si>
-    <t>Quote Price 522.97 IIDM cost is 864.85</t>
-  </si>
-  <si>
-    <t>FSP is  SP is  Buy Price is 864.85</t>
-  </si>
-  <si>
-    <t>2023-10-10 16:02:33</t>
-  </si>
-  <si>
-    <t>PRICING_027_Verifying_FSP is Null, SP is not Null, Buy price is not Null we display the SP as Quote Price and Buy price as IIDM cost</t>
-  </si>
-  <si>
-    <t>Quote Price 830.16 IIDM cost is 258.43</t>
-  </si>
-  <si>
-    <t>FSP is  SP is 830.16 Buy Price is 258.43</t>
-  </si>
-  <si>
-    <t>2023-10-10 16:02:47</t>
-  </si>
-  <si>
-    <t>PRICING_028_Verifying_Buy price is Null, we display the IIDM cost as Item Our Price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buy Price is </t>
-  </si>
-  <si>
-    <t>IIDM cost is 401.69Item Our Price is 401.69</t>
-  </si>
-  <si>
-    <t>2023-10-10 16:03:02</t>
+    <t>2023-10-11 14:30:37</t>
+  </si>
+  <si>
+    <t>PERMNS_008_Verify_Quote Approval_Permission_As_None</t>
+  </si>
+  <si>
+    <t>2023-10-11 14:31:07</t>
+  </si>
+  <si>
+    <t>PERMNS_009_Verify_Quote Types_Permission_As_None</t>
+  </si>
+  <si>
+    <t>2023-10-11 14:31:41</t>
+  </si>
+  <si>
+    <t>PERMNS_010_Verify_Regions_Permission_As_None</t>
+  </si>
+  <si>
+    <t>2023-10-11 14:32:15</t>
+  </si>
+  <si>
+    <t>PERMNS_011_Verify_Sales Potential_Permission_As_None</t>
+  </si>
+  <si>
+    <t>2023-10-11 14:32:49</t>
+  </si>
+  <si>
+    <t>PERMNS_012_Verify_Terms &amp; Conditions_Permission_As_None</t>
+  </si>
+  <si>
+    <t>2023-10-11 14:33:21</t>
+  </si>
+  <si>
+    <t>PERMNS_013_Verify_Territories_Permission_As_None</t>
+  </si>
+  <si>
+    <t>2023-10-11 14:33:55</t>
+  </si>
+  <si>
+    <t>PERMNS_014_Verify_User Roles_Permission_As_None</t>
+  </si>
+  <si>
+    <t>2023-10-11 14:34:28</t>
+  </si>
+  <si>
+    <t>PERMNS_015_Verify_Vendors_Permission_As_None</t>
+  </si>
+  <si>
+    <t>2023-10-11 14:35:02</t>
+  </si>
+  <si>
+    <t>PERMNS_016_Verify_Warehouse_Permission_As_None</t>
+  </si>
+  <si>
+    <t>2023-10-11 14:35:36</t>
+  </si>
+  <si>
+    <t>PERMNS_017_Verify_Zip Codes_Permission_As_None</t>
+  </si>
+  <si>
+    <t>2023-10-11 14:36:11</t>
+  </si>
+  <si>
+    <t>PERMNS_018_Verify_Account Type_Permission_As_View</t>
+  </si>
+  <si>
+    <t>actual displayed option is Filters</t>
+  </si>
+  <si>
+    <t>expected displayed option is Filters edit count is 0</t>
+  </si>
+  <si>
+    <t>2023-10-11 14:36:49</t>
+  </si>
+  <si>
+    <t>PERMNS_019_Verify_Branches_Permission_As_View</t>
+  </si>
+  <si>
+    <t>2023-10-11 14:37:27</t>
+  </si>
+  <si>
+    <t>PERMNS_020_Verify_Regions_Permission_As_View</t>
+  </si>
+  <si>
+    <t>expected displayed option is Filters edit count is 1</t>
+  </si>
+  <si>
+    <t>2023-10-11 14:38:05</t>
+  </si>
+  <si>
+    <t>PERMNS_021_Verify_Territories_Permission_As_View</t>
+  </si>
+  <si>
+    <t>2023-10-11 14:38:44</t>
+  </si>
+  <si>
+    <t>PERMNS_022_Verify_Zip Codes_Permission_As_View</t>
+  </si>
+  <si>
+    <t>2023-10-11 14:39:23</t>
+  </si>
+  <si>
+    <t>PERMNS_023_Verify_Warehouse_Permission_As_View</t>
+  </si>
+  <si>
+    <t>actual displayed option is Filters
+1
+Clear</t>
+  </si>
+  <si>
+    <t>2023-10-11 14:40:02</t>
+  </si>
+  <si>
+    <t>PERMNS_024_Verify_Classifications_Permission_As_View</t>
+  </si>
+  <si>
+    <t>2023-10-11 14:40:41</t>
+  </si>
+  <si>
+    <t>PERMNS_025_Verify_Contact Types_Permission_As_View</t>
+  </si>
+  <si>
+    <t>2023-10-11 14:41:19</t>
+  </si>
+  <si>
+    <t>PERMNS_026_Verify_Industries_Permission_As_View</t>
+  </si>
+  <si>
+    <t>2023-10-11 14:41:59</t>
+  </si>
+  <si>
+    <t>PERMNS_027_Verify_PO Min Qty_Permission_As_View</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actual displayed option is </t>
+  </si>
+  <si>
+    <t>expected displayed option is  edit count is 1</t>
+  </si>
+  <si>
+    <t>2023-10-11 14:42:41</t>
+  </si>
+  <si>
+    <t>PERMNS_028_Verify_Quote Types_Permission_As_View</t>
+  </si>
+  <si>
+    <t>2023-10-11 14:43:20</t>
+  </si>
+  <si>
+    <t>PERMNS_029_Verify_Sales Potential_Permission_As_View</t>
+  </si>
+  <si>
+    <t>2023-10-11 14:43:58</t>
+  </si>
+  <si>
+    <t>PERMNS_030_Verify_Vendors_Permission_As_View</t>
+  </si>
+  <si>
+    <t>2023-10-11 14:44:37</t>
+  </si>
+  <si>
+    <t>PERMNS_031_Verify_Quote Approval_Permission_As_View</t>
+  </si>
+  <si>
+    <t>expected displayed option is  edit count is 0</t>
+  </si>
+  <si>
+    <t>2023-10-11 14:45:13</t>
+  </si>
+  <si>
+    <t>PERMNS_032_Verify_User Roles_Permission_As_View</t>
+  </si>
+  <si>
+    <t>actual displayed option is 0</t>
+  </si>
+  <si>
+    <t>expected displayed option is 0 edit count is 0</t>
+  </si>
+  <si>
+    <t>2023-10-11 14:45:49</t>
+  </si>
+  <si>
+    <t>PERMNS_033_Verify_Terms &amp; Conditions_Permission_As_View</t>
+  </si>
+  <si>
+    <t>2023-10-11 14:46:25</t>
+  </si>
+  <si>
+    <t>PERMNS_034_Verify_QC Control_Permission_As_View</t>
+  </si>
+  <si>
+    <t>2023-10-11 14:47:02</t>
+  </si>
+  <si>
+    <t>PERMNS_094_Verify_Product Category_Permission_As_View</t>
+  </si>
+  <si>
+    <t>2023-10-11 14:47:40</t>
+  </si>
+  <si>
+    <t>PERMNS_096_Verify_Product Category_Permission_As_None</t>
+  </si>
+  <si>
+    <t>2023-10-11 14:48:14</t>
   </si>
 </sst>
 </file>
@@ -393,7 +368,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane ySplit="1.0" state="frozen" topLeftCell="G2" activePane="bottomRight" xSplit="6.0"/>
@@ -442,640 +417,847 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="G17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="G18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="G19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="G20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="G21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F22" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="G22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="F23" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="G23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F24" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="G24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F25" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="G25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F26" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="G26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="D27" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="G27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="D28" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F28" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="G28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="C29" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" t="s">
+        <v>81</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
+        <v>84</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
+        <v>88</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" t="s">
+        <v>90</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" t="s">
         <v>92</v>
       </c>
-      <c r="E29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" t="s">
-        <v>105</v>
-      </c>
-      <c r="G29" t="s">
-        <v>12</v>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" t="s">
+        <v>94</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" t="s">
+        <v>96</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Buzzworld_InternalPortal/tcfile.xlsx
+++ b/Buzzworld_InternalPortal/tcfile.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="138">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -93,12 +93,6 @@
   </si>
   <si>
     <t>Failed</t>
-  </si>
-  <si>
-    <t>2023-10-11 15:05:03</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>2023-10-11 14:30:37</t>
@@ -293,6 +287,169 @@
   </si>
   <si>
     <t>2023-10-11 14:47:02</t>
+  </si>
+  <si>
+    <t>PERMNS_035_Verify_Pricing_Permission_As_None</t>
+  </si>
+  <si>
+    <t>2023-10-11 16:43:40</t>
+  </si>
+  <si>
+    <t>PERMNS_036_Verify_Discount Codes_Permission_As_None</t>
+  </si>
+  <si>
+    <t>2023-10-11 16:44:13</t>
+  </si>
+  <si>
+    <t>PERMNS_037_Verify_Non Standard Pricing_Permission_As_None</t>
+  </si>
+  <si>
+    <t>2023-10-11 16:44:46</t>
+  </si>
+  <si>
+    <t>PERMNS_038_Verify_Export_Permission_As_Yes_In_Pricing</t>
+  </si>
+  <si>
+    <t>Centrifuge
+Filters
+Add</t>
+  </si>
+  <si>
+    <t>Top displayed text is Centrifuge
+Filters
+Add</t>
+  </si>
+  <si>
+    <t>2023-10-11 16:45:22</t>
+  </si>
+  <si>
+    <t>PERMNS_039_Verify_Export_Permission_As_NoIn_Pricing</t>
+  </si>
+  <si>
+    <t>Centrifuge
+Export
+Filters
+Add</t>
+  </si>
+  <si>
+    <t>Top displayed text is Centrifuge
+Export
+Filters
+Add</t>
+  </si>
+  <si>
+    <t>2023-10-11 16:45:58</t>
+  </si>
+  <si>
+    <t>PERMNS_040_Verify_Import_Permission_As_Yes_In_Pricing</t>
+  </si>
+  <si>
+    <t>2023-10-11 16:46:35</t>
+  </si>
+  <si>
+    <t>PERMNS_041_Verify_Import_Permission_As_No_In_Pricing</t>
+  </si>
+  <si>
+    <t>Centrifuge
+Import
+Export
+Filters
+Add</t>
+  </si>
+  <si>
+    <t>Top displayed text is Centrifuge
+Import
+Export
+Filters
+Add</t>
+  </si>
+  <si>
+    <t>2023-10-11 16:47:11</t>
+  </si>
+  <si>
+    <t>PERMNS_042_Verify_Export_Permission_As_Yes_In_Discount Codes</t>
+  </si>
+  <si>
+    <t>Centrifuge
+Multi Edit
+Filters
+Add</t>
+  </si>
+  <si>
+    <t>Top displayed text is Centrifuge
+Multi Edit
+Filters
+Add</t>
+  </si>
+  <si>
+    <t>2023-10-11 16:47:48</t>
+  </si>
+  <si>
+    <t>PERMNS_043_Verify_Export_Permission_As_No_In_Discount Codes</t>
+  </si>
+  <si>
+    <t>Centrifuge
+Multi Edit
+Export
+Filters
+Add</t>
+  </si>
+  <si>
+    <t>Top displayed text is Centrifuge
+Multi Edit
+Export
+Filters
+Add</t>
+  </si>
+  <si>
+    <t>2023-10-11 16:48:24</t>
+  </si>
+  <si>
+    <t>PERMNS_044_Verify_Export_Permission_As_Yes_In_Non Standard Pricing</t>
+  </si>
+  <si>
+    <t>Pricing Rule Configurator
+Export</t>
+  </si>
+  <si>
+    <t>Top displayed text is Pricing Rule Configurator
+Export</t>
+  </si>
+  <si>
+    <t>2023-10-11 16:49:08</t>
+  </si>
+  <si>
+    <t>PERMNS_045_Verify_Export_Permission_As_No_In_Non Standard Pricing</t>
+  </si>
+  <si>
+    <t>Pricing Rule Configurator</t>
+  </si>
+  <si>
+    <t>Top displayed text is Pricing Rule Configurator</t>
+  </si>
+  <si>
+    <t>2023-10-11 16:49:51</t>
+  </si>
+  <si>
+    <t>PERMNS_046_Verify_Pricing_Permission_As_View</t>
+  </si>
+  <si>
+    <t>2023-10-11 16:50:25</t>
+  </si>
+  <si>
+    <t>PERMNS_047_Verify_Discount Codes_Permission_As_View</t>
+  </si>
+  <si>
+    <t>2023-10-11 16:50:58</t>
+  </si>
+  <si>
+    <t>PERMNS_048_Verify_Non Standard Pricing_Permission_As_View</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2023-10-11 16:51:30</t>
   </si>
   <si>
     <t>PERMNS_094_Verify_Product Category_Permission_As_View</t>
@@ -368,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane ySplit="1.0" state="frozen" topLeftCell="G2" activePane="bottomRight" xSplit="6.0"/>
@@ -567,24 +724,24 @@
         <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -716,13 +873,13 @@
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F15" t="s">
         <v>41</v>
@@ -739,13 +896,13 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
         <v>43</v>
@@ -805,10 +962,10 @@
         <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
@@ -817,7 +974,7 @@
         <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G19" t="s">
         <v>13</v>
@@ -825,13 +982,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
         <v>50</v>
-      </c>
-      <c r="B20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" t="s">
-        <v>52</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
@@ -851,19 +1008,19 @@
         <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G21" t="s">
         <v>13</v>
@@ -871,13 +1028,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
@@ -897,10 +1054,10 @@
         <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
         <v>10</v>
@@ -920,10 +1077,10 @@
         <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
         <v>10</v>
@@ -932,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G24" t="s">
         <v>13</v>
@@ -940,13 +1097,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
@@ -966,10 +1123,10 @@
         <v>66</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D26" t="s">
         <v>10</v>
@@ -989,10 +1146,10 @@
         <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
         <v>10</v>
@@ -1012,10 +1169,10 @@
         <v>70</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D28" t="s">
         <v>10</v>
@@ -1024,7 +1181,7 @@
         <v>26</v>
       </c>
       <c r="F28" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G28" t="s">
         <v>13</v>
@@ -1032,13 +1189,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="D29" t="s">
         <v>10</v>
@@ -1058,10 +1215,10 @@
         <v>76</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D30" t="s">
         <v>10</v>
@@ -1081,10 +1238,10 @@
         <v>78</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D31" t="s">
         <v>10</v>
@@ -1104,19 +1261,19 @@
         <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="D32" t="s">
         <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G32" t="s">
         <v>13</v>
@@ -1124,13 +1281,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C33" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D33" t="s">
         <v>10</v>
@@ -1139,7 +1296,7 @@
         <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G33" t="s">
         <v>13</v>
@@ -1147,13 +1304,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D34" t="s">
         <v>10</v>
@@ -1173,10 +1330,10 @@
         <v>89</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D35" t="s">
         <v>10</v>
@@ -1196,10 +1353,10 @@
         <v>91</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
         <v>10</v>
@@ -1219,16 +1376,16 @@
         <v>93</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
         <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
         <v>94</v>
@@ -1257,6 +1414,305 @@
         <v>96</v>
       </c>
       <c r="G38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" t="s">
+        <v>100</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" t="s">
+        <v>104</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" t="s">
+        <v>106</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" t="s">
+        <v>110</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" t="s">
+        <v>113</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" t="s">
+        <v>114</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" t="s">
+        <v>117</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" t="s">
+        <v>118</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" t="s">
+        <v>121</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" t="s">
+        <v>122</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>123</v>
+      </c>
+      <c r="B46" t="s">
+        <v>124</v>
+      </c>
+      <c r="C46" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" t="s">
+        <v>126</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>127</v>
+      </c>
+      <c r="B47" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" t="s">
+        <v>109</v>
+      </c>
+      <c r="D47" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" t="s">
+        <v>128</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>129</v>
+      </c>
+      <c r="B48" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" t="s">
+        <v>26</v>
+      </c>
+      <c r="F48" t="s">
+        <v>130</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>131</v>
+      </c>
+      <c r="B49" t="s">
+        <v>132</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" t="s">
+        <v>133</v>
+      </c>
+      <c r="G49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>134</v>
+      </c>
+      <c r="B50" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" t="s">
+        <v>135</v>
+      </c>
+      <c r="G50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>136</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" t="s">
+        <v>137</v>
+      </c>
+      <c r="G51" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Buzzworld_InternalPortal/tcfile.xlsx
+++ b/Buzzworld_InternalPortal/tcfile.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="183">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -35,433 +35,540 @@
     <t>Environment</t>
   </si>
   <si>
-    <t>PERMNS_001_Verify_AccountType_Permission_As_None</t>
-  </si>
-  <si>
-    <t>Sorry, you do not have permissions to access this page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Top displayed text is </t>
-  </si>
-  <si>
-    <t>Permissions</t>
+    <t>001_Verify_exact_search_with_plus_Pricing_top_search</t>
+  </si>
+  <si>
+    <t>955+8R0150 is not displayed at search</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Search Stock + Code</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>2023-10-19 19:33:10</t>
+  </si>
+  <si>
+    <t>QA Instance</t>
+  </si>
+  <si>
+    <t>001_Verify_exact_search_with_plus_Repair_top_search</t>
+  </si>
+  <si>
+    <t>Actual text is 955+8R0150</t>
+  </si>
+  <si>
+    <t>Expected text is 955+8R0150</t>
   </si>
   <si>
     <t>Passed</t>
   </si>
   <si>
-    <t>2023-10-11 14:27:15</t>
-  </si>
-  <si>
-    <t>QA Instance</t>
-  </si>
-  <si>
-    <t>PERMNS_002_Verify_Branches_Permission_As_None</t>
-  </si>
-  <si>
-    <t>2023-10-11 14:27:49</t>
-  </si>
-  <si>
-    <t>PERMNS_003_Verify_Classification_Permission_As_None</t>
-  </si>
-  <si>
-    <t>2023-10-11 14:28:22</t>
-  </si>
-  <si>
-    <t>PERMNS_004_Verify_Industry_Permission_As_None</t>
-  </si>
-  <si>
-    <t>2023-10-11 14:28:56</t>
-  </si>
-  <si>
-    <t>PERMNS_005_Verify_Po Min Qty_Permission_As_None</t>
-  </si>
-  <si>
-    <t>2023-10-11 14:29:30</t>
-  </si>
-  <si>
-    <t>PERMNS_006_Verify_Product Class_Permission_As_None</t>
-  </si>
-  <si>
-    <t>2023-10-11 14:30:04</t>
-  </si>
-  <si>
-    <t>PERMNS_007_Verify_QC Control_Permission_As_None</t>
-  </si>
-  <si>
-    <t>Top displayed text is Add</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>2023-10-11 14:30:37</t>
-  </si>
-  <si>
-    <t>PERMNS_008_Verify_Quote Approval_Permission_As_None</t>
-  </si>
-  <si>
-    <t>2023-10-11 14:31:07</t>
-  </si>
-  <si>
-    <t>PERMNS_009_Verify_Quote Types_Permission_As_None</t>
-  </si>
-  <si>
-    <t>2023-10-11 14:31:41</t>
-  </si>
-  <si>
-    <t>PERMNS_010_Verify_Regions_Permission_As_None</t>
-  </si>
-  <si>
-    <t>2023-10-11 14:32:15</t>
-  </si>
-  <si>
-    <t>PERMNS_011_Verify_Sales Potential_Permission_As_None</t>
-  </si>
-  <si>
-    <t>2023-10-11 14:32:49</t>
-  </si>
-  <si>
-    <t>PERMNS_012_Verify_Terms &amp; Conditions_Permission_As_None</t>
-  </si>
-  <si>
-    <t>2023-10-11 14:33:21</t>
-  </si>
-  <si>
-    <t>PERMNS_013_Verify_Territories_Permission_As_None</t>
-  </si>
-  <si>
-    <t>2023-10-11 14:33:55</t>
-  </si>
-  <si>
-    <t>PERMNS_014_Verify_User Roles_Permission_As_None</t>
-  </si>
-  <si>
-    <t>2023-10-11 14:34:28</t>
-  </si>
-  <si>
-    <t>PERMNS_015_Verify_Vendors_Permission_As_None</t>
-  </si>
-  <si>
-    <t>2023-10-11 14:35:02</t>
-  </si>
-  <si>
-    <t>PERMNS_016_Verify_Warehouse_Permission_As_None</t>
-  </si>
-  <si>
-    <t>2023-10-11 14:35:36</t>
-  </si>
-  <si>
-    <t>PERMNS_017_Verify_Zip Codes_Permission_As_None</t>
-  </si>
-  <si>
-    <t>2023-10-11 14:36:11</t>
-  </si>
-  <si>
-    <t>PERMNS_018_Verify_Account Type_Permission_As_View</t>
-  </si>
-  <si>
-    <t>actual displayed option is Filters</t>
-  </si>
-  <si>
-    <t>expected displayed option is Filters edit count is 0</t>
-  </si>
-  <si>
-    <t>2023-10-11 14:36:49</t>
-  </si>
-  <si>
-    <t>PERMNS_019_Verify_Branches_Permission_As_View</t>
-  </si>
-  <si>
-    <t>2023-10-11 14:37:27</t>
-  </si>
-  <si>
-    <t>PERMNS_020_Verify_Regions_Permission_As_View</t>
-  </si>
-  <si>
-    <t>expected displayed option is Filters edit count is 1</t>
-  </si>
-  <si>
-    <t>2023-10-11 14:38:05</t>
-  </si>
-  <si>
-    <t>PERMNS_021_Verify_Territories_Permission_As_View</t>
-  </si>
-  <si>
-    <t>2023-10-11 14:38:44</t>
-  </si>
-  <si>
-    <t>PERMNS_022_Verify_Zip Codes_Permission_As_View</t>
-  </si>
-  <si>
-    <t>2023-10-11 14:39:23</t>
-  </si>
-  <si>
-    <t>PERMNS_023_Verify_Warehouse_Permission_As_View</t>
-  </si>
-  <si>
-    <t>actual displayed option is Filters
-1
-Clear</t>
-  </si>
-  <si>
-    <t>2023-10-11 14:40:02</t>
-  </si>
-  <si>
-    <t>PERMNS_024_Verify_Classifications_Permission_As_View</t>
-  </si>
-  <si>
-    <t>2023-10-11 14:40:41</t>
-  </si>
-  <si>
-    <t>PERMNS_025_Verify_Contact Types_Permission_As_View</t>
-  </si>
-  <si>
-    <t>2023-10-11 14:41:19</t>
-  </si>
-  <si>
-    <t>PERMNS_026_Verify_Industries_Permission_As_View</t>
-  </si>
-  <si>
-    <t>2023-10-11 14:41:59</t>
-  </si>
-  <si>
-    <t>PERMNS_027_Verify_PO Min Qty_Permission_As_View</t>
-  </si>
-  <si>
-    <t xml:space="preserve">actual displayed option is </t>
-  </si>
-  <si>
-    <t>expected displayed option is  edit count is 1</t>
-  </si>
-  <si>
-    <t>2023-10-11 14:42:41</t>
-  </si>
-  <si>
-    <t>PERMNS_028_Verify_Quote Types_Permission_As_View</t>
-  </si>
-  <si>
-    <t>2023-10-11 14:43:20</t>
-  </si>
-  <si>
-    <t>PERMNS_029_Verify_Sales Potential_Permission_As_View</t>
-  </si>
-  <si>
-    <t>2023-10-11 14:43:58</t>
-  </si>
-  <si>
-    <t>PERMNS_030_Verify_Vendors_Permission_As_View</t>
-  </si>
-  <si>
-    <t>2023-10-11 14:44:37</t>
-  </si>
-  <si>
-    <t>PERMNS_031_Verify_Quote Approval_Permission_As_View</t>
-  </si>
-  <si>
-    <t>expected displayed option is  edit count is 0</t>
-  </si>
-  <si>
-    <t>2023-10-11 14:45:13</t>
-  </si>
-  <si>
-    <t>PERMNS_032_Verify_User Roles_Permission_As_View</t>
-  </si>
-  <si>
-    <t>actual displayed option is 0</t>
-  </si>
-  <si>
-    <t>expected displayed option is 0 edit count is 0</t>
-  </si>
-  <si>
-    <t>2023-10-11 14:45:49</t>
-  </si>
-  <si>
-    <t>PERMNS_033_Verify_Terms &amp; Conditions_Permission_As_View</t>
-  </si>
-  <si>
-    <t>2023-10-11 14:46:25</t>
-  </si>
-  <si>
-    <t>PERMNS_034_Verify_QC Control_Permission_As_View</t>
-  </si>
-  <si>
-    <t>2023-10-11 14:47:02</t>
-  </si>
-  <si>
-    <t>PERMNS_035_Verify_Pricing_Permission_As_None</t>
-  </si>
-  <si>
-    <t>2023-10-11 16:43:40</t>
-  </si>
-  <si>
-    <t>PERMNS_036_Verify_Discount Codes_Permission_As_None</t>
-  </si>
-  <si>
-    <t>2023-10-11 16:44:13</t>
-  </si>
-  <si>
-    <t>PERMNS_037_Verify_Non Standard Pricing_Permission_As_None</t>
-  </si>
-  <si>
-    <t>2023-10-11 16:44:46</t>
-  </si>
-  <si>
-    <t>PERMNS_038_Verify_Export_Permission_As_Yes_In_Pricing</t>
-  </si>
-  <si>
-    <t>Centrifuge
-Filters
-Add</t>
-  </si>
-  <si>
-    <t>Top displayed text is Centrifuge
-Filters
-Add</t>
-  </si>
-  <si>
-    <t>2023-10-11 16:45:22</t>
-  </si>
-  <si>
-    <t>PERMNS_039_Verify_Export_Permission_As_NoIn_Pricing</t>
-  </si>
-  <si>
-    <t>Centrifuge
-Export
-Filters
-Add</t>
-  </si>
-  <si>
-    <t>Top displayed text is Centrifuge
-Export
-Filters
-Add</t>
-  </si>
-  <si>
-    <t>2023-10-11 16:45:58</t>
-  </si>
-  <si>
-    <t>PERMNS_040_Verify_Import_Permission_As_Yes_In_Pricing</t>
-  </si>
-  <si>
-    <t>2023-10-11 16:46:35</t>
-  </si>
-  <si>
-    <t>PERMNS_041_Verify_Import_Permission_As_No_In_Pricing</t>
-  </si>
-  <si>
-    <t>Centrifuge
-Import
-Export
-Filters
-Add</t>
-  </si>
-  <si>
-    <t>Top displayed text is Centrifuge
-Import
-Export
-Filters
-Add</t>
-  </si>
-  <si>
-    <t>2023-10-11 16:47:11</t>
-  </si>
-  <si>
-    <t>PERMNS_042_Verify_Export_Permission_As_Yes_In_Discount Codes</t>
-  </si>
-  <si>
-    <t>Centrifuge
-Multi Edit
-Filters
-Add</t>
-  </si>
-  <si>
-    <t>Top displayed text is Centrifuge
-Multi Edit
-Filters
-Add</t>
-  </si>
-  <si>
-    <t>2023-10-11 16:47:48</t>
-  </si>
-  <si>
-    <t>PERMNS_043_Verify_Export_Permission_As_No_In_Discount Codes</t>
-  </si>
-  <si>
-    <t>Centrifuge
-Multi Edit
-Export
-Filters
-Add</t>
-  </si>
-  <si>
-    <t>Top displayed text is Centrifuge
-Multi Edit
-Export
-Filters
-Add</t>
-  </si>
-  <si>
-    <t>2023-10-11 16:48:24</t>
-  </si>
-  <si>
-    <t>PERMNS_044_Verify_Export_Permission_As_Yes_In_Non Standard Pricing</t>
-  </si>
-  <si>
-    <t>Pricing Rule Configurator
-Export</t>
-  </si>
-  <si>
-    <t>Top displayed text is Pricing Rule Configurator
-Export</t>
-  </si>
-  <si>
-    <t>2023-10-11 16:49:08</t>
-  </si>
-  <si>
-    <t>PERMNS_045_Verify_Export_Permission_As_No_In_Non Standard Pricing</t>
-  </si>
-  <si>
-    <t>Pricing Rule Configurator</t>
-  </si>
-  <si>
-    <t>Top displayed text is Pricing Rule Configurator</t>
-  </si>
-  <si>
-    <t>2023-10-11 16:49:51</t>
-  </si>
-  <si>
-    <t>PERMNS_046_Verify_Pricing_Permission_As_View</t>
-  </si>
-  <si>
-    <t>2023-10-11 16:50:25</t>
-  </si>
-  <si>
-    <t>PERMNS_047_Verify_Discount Codes_Permission_As_View</t>
-  </si>
-  <si>
-    <t>2023-10-11 16:50:58</t>
-  </si>
-  <si>
-    <t>PERMNS_048_Verify_Non Standard Pricing_Permission_As_View</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2023-10-11 16:51:30</t>
-  </si>
-  <si>
-    <t>PERMNS_094_Verify_Product Category_Permission_As_View</t>
-  </si>
-  <si>
-    <t>2023-10-11 14:47:40</t>
-  </si>
-  <si>
-    <t>PERMNS_096_Verify_Product Category_Permission_As_None</t>
-  </si>
-  <si>
-    <t>2023-10-11 14:48:14</t>
+    <t>2023-10-19 19:32:26</t>
+  </si>
+  <si>
+    <t>2023-10-19 19:29:09</t>
+  </si>
+  <si>
+    <t>QUOTES_001_VerifyCreateQuote</t>
+  </si>
+  <si>
+    <t>#2023101700001
+OPEN</t>
+  </si>
+  <si>
+    <t>OPEN</t>
+  </si>
+  <si>
+    <t>QuotesPage</t>
+  </si>
+  <si>
+    <t>2023-10-17 18:51:54</t>
+  </si>
+  <si>
+    <t>#2023101700002
+OPEN</t>
+  </si>
+  <si>
+    <t>2023-10-17 18:57:25</t>
+  </si>
+  <si>
+    <t>QUOTES_002_VerifySelectItemToQuote</t>
+  </si>
+  <si>
+    <t>Quote Items (0)</t>
+  </si>
+  <si>
+    <t>Quote Items (1)</t>
+  </si>
+  <si>
+    <t>2023-10-17 18:52:55</t>
+  </si>
+  <si>
+    <t>QUOTES_003_VerifyLeadTimeDisplayedOrNot</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>2023-10-17 18:53:16</t>
+  </si>
+  <si>
+    <t>QUOTES_004_VerifyBulkEdit</t>
+  </si>
+  <si>
+    <t>Displayed Discount is 32.23 %</t>
+  </si>
+  <si>
+    <t>Applied Discount is 32.23 %</t>
+  </si>
+  <si>
+    <t>2023-10-17 18:53:32</t>
+  </si>
+  <si>
+    <t>QUOTES_005_VerifySubmitForInternalApproval</t>
+  </si>
+  <si>
+    <t>If total price is &lt;=10000 we are't displaying SubmitForInternalApproval</t>
+  </si>
+  <si>
+    <t>total price is 91.49</t>
+  </si>
+  <si>
+    <t>Not Executing</t>
+  </si>
+  <si>
+    <t>2023-10-17 18:53:50</t>
+  </si>
+  <si>
+    <t>QUOTES_006_Verify_Display_TheReviseQuote_When_Quote_After_Open_Status</t>
+  </si>
+  <si>
+    <t>Revise Quote button is Displayed ..? true</t>
+  </si>
+  <si>
+    <t>2023-10-17 18:54:06</t>
+  </si>
+  <si>
+    <t>QUOTES_007_VerifyApproveButton</t>
+  </si>
+  <si>
+    <t>#2023101700001
+APPROVED</t>
+  </si>
+  <si>
+    <t>APPROVED</t>
+  </si>
+  <si>
+    <t>2023-10-17 18:54:03</t>
+  </si>
+  <si>
+    <t>QUOTES_008_VerifySubmitForCustomerApproval</t>
+  </si>
+  <si>
+    <t>#2023101700001
+DELIVERED TO CUSTOMER</t>
+  </si>
+  <si>
+    <t>DELIVERED TO CUSTOMER</t>
+  </si>
+  <si>
+    <t>2023-10-17 18:54:13</t>
+  </si>
+  <si>
+    <t>QUOTES_009_VerifyQuoteWon</t>
+  </si>
+  <si>
+    <t>#2023101700001
+Option 2
+WON</t>
+  </si>
+  <si>
+    <t>WON</t>
+  </si>
+  <si>
+    <t>2023-10-17 18:54:21</t>
+  </si>
+  <si>
+    <t>QUOTES_010_VerifyCreateSalesOrder_From_Quote</t>
+  </si>
+  <si>
+    <t>Not executing in QA environment</t>
+  </si>
+  <si>
+    <t>Not Executed..</t>
+  </si>
+  <si>
+    <t>2023-10-17 18:54:24</t>
+  </si>
+  <si>
+    <t>QUOTES_011_VerifyCreateJob_From_Quote</t>
+  </si>
+  <si>
+    <t>QUOTES_013_VerifyPrintFunctionality</t>
+  </si>
+  <si>
+    <t>Print working in Quotes Detailed Page.</t>
+  </si>
+  <si>
+    <t>2023-10-17 18:53:03</t>
+  </si>
+  <si>
+    <t>QUOTES_023_VerifyDeleteIconInQuoteItems</t>
+  </si>
+  <si>
+    <t>2023-10-17 18:52:41</t>
+  </si>
+  <si>
+    <t>QUOTES_024_VerifyEditIconInQuoteItems</t>
+  </si>
+  <si>
+    <t>Quantity:
+5</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2023-10-17 18:53:26</t>
+  </si>
+  <si>
+    <t>QUOTES_032_VerifyUpdateQuoteType</t>
+  </si>
+  <si>
+    <t>before update quote type is System Quote</t>
+  </si>
+  <si>
+    <t>After update quote type is Parts Quote</t>
+  </si>
+  <si>
+    <t>2023-10-17 18:52:19</t>
+  </si>
+  <si>
+    <t>QUOTES_034_Verify_discount_Value</t>
+  </si>
+  <si>
+    <t>actual discount 19.0</t>
+  </si>
+  <si>
+    <t>expected discount 19.0</t>
+  </si>
+  <si>
+    <t>QUOTES_039_Verify_GP_Value</t>
+  </si>
+  <si>
+    <t>actual gp 23.46</t>
+  </si>
+  <si>
+    <t>expected gp 23.46</t>
+  </si>
+  <si>
+    <t>QUOTES_040_Verify_Delete_Quote_Option</t>
+  </si>
+  <si>
+    <t>Option deleted successfully.!</t>
+  </si>
+  <si>
+    <t>2023-10-17 18:52:09</t>
+  </si>
+  <si>
+    <t>qa</t>
+  </si>
+  <si>
+    <t>2023-10-17 18:57:40</t>
+  </si>
+  <si>
+    <t>REPAIRS_001_Verify_Display All Items</t>
+  </si>
+  <si>
+    <t>By default isSeleted status is true</t>
+  </si>
+  <si>
+    <t>RepairsPage</t>
+  </si>
+  <si>
+    <t>2023-10-16 19:44:19</t>
+  </si>
+  <si>
+    <t>REPAIRS_002_VerifyCreateRMA 314287</t>
+  </si>
+  <si>
+    <t>Add Items</t>
+  </si>
+  <si>
+    <t>2023-10-16 19:48:27</t>
+  </si>
+  <si>
+    <t>REPAIRS_003_VerifySelectItemToRepair</t>
+  </si>
+  <si>
+    <t>Repair Items (1)</t>
+  </si>
+  <si>
+    <t>Repair Items (2)</t>
+  </si>
+  <si>
+    <t>2023-10-16 19:49:10</t>
+  </si>
+  <si>
+    <t>REPAIRS_004_VerifyAssignLocation</t>
+  </si>
+  <si>
+    <t>CHECKED-IN</t>
+  </si>
+  <si>
+    <t>2023-10-16 19:49:22</t>
+  </si>
+  <si>
+    <t>REPAIRS_005_VerifyAssignTechnician</t>
+  </si>
+  <si>
+    <t>PENDING EVALUATION</t>
+  </si>
+  <si>
+    <t>2023-10-16 19:49:30</t>
+  </si>
+  <si>
+    <t>REPAIRS_006_VerifyEvaluateItem</t>
+  </si>
+  <si>
+    <t>PENDING QUOTE</t>
+  </si>
+  <si>
+    <t>2023-10-16 19:49:37</t>
+  </si>
+  <si>
+    <t>REPAIRS_007_VerifyAddRepairableItemToQuote</t>
+  </si>
+  <si>
+    <t>Add Options</t>
+  </si>
+  <si>
+    <t>2023-10-16 19:49:48</t>
+  </si>
+  <si>
+    <t>REPAIRS_008_VerifyCreateQuoteFromRepair</t>
+  </si>
+  <si>
+    <t>#2023101600004
+OPEN</t>
+  </si>
+  <si>
+    <t>2023-10-16 19:49:51</t>
+  </si>
+  <si>
+    <t>REPAIRS_009_Verify_My_Repair_Requests_Tab</t>
+  </si>
+  <si>
+    <t>Actual displayed test is PENDING EVALUATION 314286</t>
+  </si>
+  <si>
+    <t>expected displayed text is Pending Evaluation 314286</t>
+  </si>
+  <si>
+    <t>2023-10-16 19:47:01</t>
+  </si>
+  <si>
+    <t>REPAIRS_010_VerifyQCCheckList_as_Fail</t>
+  </si>
+  <si>
+    <t>2023-10-16 19:50:21</t>
+  </si>
+  <si>
+    <t>REPAIRS_011_VerifyAssignToQC</t>
+  </si>
+  <si>
+    <t>REPAIRS_012_VerifyQCCheckList_as_Pass</t>
+  </si>
+  <si>
+    <t>REPAIRS_013_Verify_Repair_Report</t>
+  </si>
+  <si>
+    <t>REPAIRS_014_VerifyCreateSalesOrder_FromRepair</t>
+  </si>
+  <si>
+    <t>2023-10-16 19:50:22</t>
+  </si>
+  <si>
+    <t>REPAIRS_015_Verify_Parts_Purchase_Icon_isDisplayed_OrNot</t>
+  </si>
+  <si>
+    <t>REPAIRS_016_VerifyCreateJobFromRepair</t>
+  </si>
+  <si>
+    <t>REPAIRS_017_VerifyFileUpload_Repairs</t>
+  </si>
+  <si>
+    <t>Document Uploaded successfully</t>
+  </si>
+  <si>
+    <t>2023-10-16 19:48:38</t>
+  </si>
+  <si>
+    <t>REPAIRS_018_Verify_Check In_Tab_in_left_menu</t>
+  </si>
+  <si>
+    <t>actual status CHECKED-IN</t>
+  </si>
+  <si>
+    <t>expected status Checked-in</t>
+  </si>
+  <si>
+    <t>2023-10-16 19:44:38</t>
+  </si>
+  <si>
+    <t>REPAIRS_019_VerifyFilters</t>
+  </si>
+  <si>
+    <t>Repair Request Not Found for Applied filters</t>
+  </si>
+  <si>
+    <t>2023-10-16 19:47:32</t>
+  </si>
+  <si>
+    <t>REPAIRS_020_VerifyAddNewItem</t>
+  </si>
+  <si>
+    <t>Repair Items (0)</t>
+  </si>
+  <si>
+    <t>2023-10-16 19:48:46</t>
+  </si>
+  <si>
+    <t>REPAIRS_021_Verify_Delete_Row_In Add New Items</t>
+  </si>
+  <si>
+    <t>Row Deleted Successfully</t>
+  </si>
+  <si>
+    <t>2023-10-16 19:48:48</t>
+  </si>
+  <si>
+    <t>REPAIRS_022_Verify_Add_Another_Row_In Add New Items</t>
+  </si>
+  <si>
+    <t>Row Added Successfully</t>
+  </si>
+  <si>
+    <t>2023-10-16 19:48:54</t>
+  </si>
+  <si>
+    <t>REPAIRS_023_Verify_QC_Tab_in_left_menu</t>
+  </si>
+  <si>
+    <t>actual status PENDING QC</t>
+  </si>
+  <si>
+    <t>expected status Pending QC</t>
+  </si>
+  <si>
+    <t>2023-10-16 19:45:35</t>
+  </si>
+  <si>
+    <t>REPAIRS_024_Verify_Billing_Tab_in_left_menu</t>
+  </si>
+  <si>
+    <t>actual status Grid is empty!</t>
+  </si>
+  <si>
+    <t>expected status Completed, Pending Invoice</t>
+  </si>
+  <si>
+    <t>2023-10-16 19:45:54</t>
+  </si>
+  <si>
+    <t>REPAIRS_025_Verify_Quote_Stattus_Pending_Quote_Should not_display_in_My_Repair_Requests_Tab</t>
+  </si>
+  <si>
+    <t>Actual displayed RMA is 314286</t>
+  </si>
+  <si>
+    <t>expected displayed RMA is 314286</t>
+  </si>
+  <si>
+    <t>2023-10-16 19:47:13</t>
+  </si>
+  <si>
+    <t>REPAIRS_026_Verify_Receiving_Tab_in_left_menu</t>
+  </si>
+  <si>
+    <t>actual status RECEIVING</t>
+  </si>
+  <si>
+    <t>expected status Receiving</t>
+  </si>
+  <si>
+    <t>2023-10-16 19:44:29</t>
+  </si>
+  <si>
+    <t>REPAIRS_027_Verify_Evaluation_Tab_in_left_menu</t>
+  </si>
+  <si>
+    <t>actual status PENDING EVALUATION</t>
+  </si>
+  <si>
+    <t>expected status Pending Evaluation</t>
+  </si>
+  <si>
+    <t>2023-10-16 19:44:48</t>
+  </si>
+  <si>
+    <t>REPAIRS_028_VerifyFilterStateMaintanance</t>
+  </si>
+  <si>
+    <t>filters  are stabled after refresh the page</t>
+  </si>
+  <si>
+    <t>2023-10-16 19:47:56</t>
+  </si>
+  <si>
+    <t>REPAIRS_029_Verify_Pending Quote_Tab_in_left_menu</t>
+  </si>
+  <si>
+    <t>actual status PENDING QUOTE</t>
+  </si>
+  <si>
+    <t>expected status Pending Quote</t>
+  </si>
+  <si>
+    <t>2023-10-16 19:44:57</t>
+  </si>
+  <si>
+    <t>REPAIRS_030_Verify_Added to Quote_Tab_in_left_menu</t>
+  </si>
+  <si>
+    <t>actual status PENDING APPROVAL</t>
+  </si>
+  <si>
+    <t>expected status Pending Approval, Quote Approved</t>
+  </si>
+  <si>
+    <t>2023-10-16 19:45:06</t>
+  </si>
+  <si>
+    <t>REPAIRS_031_Verify_Repair_In_Progress</t>
+  </si>
+  <si>
+    <t>REPAIRS_032_VerifyCreate_PartsPurchase</t>
+  </si>
+  <si>
+    <t>REPAIRS_033_Verify_Completed_Button</t>
+  </si>
+  <si>
+    <t>2023-10-16 19:50:23</t>
+  </si>
+  <si>
+    <t>REPAIRS_034_Verify_Repair in progress_Tab_in_left_menu</t>
+  </si>
+  <si>
+    <t>expected status In Progress</t>
+  </si>
+  <si>
+    <t>2023-10-16 19:45:26</t>
   </si>
 </sst>
 </file>
@@ -525,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane ySplit="1.0" state="frozen" topLeftCell="G2" activePane="bottomRight" xSplit="6.0"/>
@@ -594,19 +701,19 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -614,22 +721,22 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
       <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -637,22 +744,22 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
@@ -663,19 +770,19 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
@@ -683,22 +790,22 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
@@ -706,22 +813,22 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
@@ -729,22 +836,22 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
@@ -752,22 +859,22 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
         <v>13</v>
@@ -775,22 +882,22 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
@@ -798,22 +905,22 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
@@ -821,22 +928,22 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
@@ -844,22 +951,22 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="G14" t="s">
         <v>13</v>
@@ -867,22 +974,22 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
@@ -890,22 +997,22 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
@@ -913,22 +1020,22 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="G17" t="s">
         <v>13</v>
@@ -936,22 +1043,22 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="G18" t="s">
         <v>13</v>
@@ -959,22 +1066,22 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="G19" t="s">
         <v>13</v>
@@ -982,22 +1089,22 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="G20" t="s">
         <v>13</v>
@@ -1005,22 +1112,22 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
         <v>13</v>
@@ -1028,22 +1135,22 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
         <v>13</v>
@@ -1051,45 +1158,45 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E23" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F24" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="G24" t="s">
         <v>13</v>
@@ -1097,22 +1204,22 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="E25" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="G25" t="s">
         <v>13</v>
@@ -1120,22 +1227,22 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="E26" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F26" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="G26" t="s">
         <v>13</v>
@@ -1143,22 +1250,22 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="E27" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F27" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="G27" t="s">
         <v>13</v>
@@ -1166,22 +1273,22 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="E28" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F28" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="G28" t="s">
         <v>13</v>
@@ -1189,22 +1296,22 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="E29" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F29" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="G29" t="s">
         <v>13</v>
@@ -1212,22 +1319,22 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="E30" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F30" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="G30" t="s">
         <v>13</v>
@@ -1235,22 +1342,22 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="E31" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F31" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="G31" t="s">
         <v>13</v>
@@ -1258,22 +1365,22 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F32" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="G32" t="s">
         <v>13</v>
@@ -1281,22 +1388,22 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F33" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="G33" t="s">
         <v>13</v>
@@ -1304,22 +1411,22 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="F34" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="G34" t="s">
         <v>13</v>
@@ -1327,22 +1434,22 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C35" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="F35" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="G35" t="s">
         <v>13</v>
@@ -1350,22 +1457,22 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="C36" t="s">
         <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="F36" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="G36" t="s">
         <v>13</v>
@@ -1373,22 +1480,22 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="C37" t="s">
         <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="F37" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="G37" t="s">
         <v>13</v>
@@ -1396,22 +1503,22 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="C38" t="s">
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="F38" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="G38" t="s">
         <v>13</v>
@@ -1419,22 +1526,22 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="E39" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="F39" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="G39" t="s">
         <v>13</v>
@@ -1442,22 +1549,22 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="F40" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="G40" t="s">
         <v>13</v>
@@ -1465,22 +1572,22 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="C41" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="E41" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F41" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="G41" t="s">
         <v>13</v>
@@ -1488,22 +1595,22 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="B42" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="C42" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F42" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="G42" t="s">
         <v>13</v>
@@ -1511,22 +1618,22 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="B43" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="C43" t="s">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="E43" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="G43" t="s">
         <v>13</v>
@@ -1534,22 +1641,22 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="B44" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C44" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F44" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="G44" t="s">
         <v>13</v>
@@ -1557,22 +1664,22 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="B45" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="C45" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F45" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="G45" t="s">
         <v>13</v>
@@ -1580,22 +1687,22 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="B46" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="C46" t="s">
-        <v>125</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F46" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="G46" t="s">
         <v>13</v>
@@ -1603,22 +1710,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="B47" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="C47" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="E47" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F47" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="G47" t="s">
         <v>13</v>
@@ -1626,22 +1733,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="B48" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="C48" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="E48" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="G48" t="s">
         <v>13</v>
@@ -1649,22 +1756,22 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="B49" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>155</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F49" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="G49" t="s">
         <v>13</v>
@@ -1672,22 +1779,22 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="B50" t="s">
-        <v>71</v>
+        <v>158</v>
       </c>
       <c r="C50" t="s">
-        <v>50</v>
+        <v>159</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="E50" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F50" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="G50" t="s">
         <v>13</v>
@@ -1695,24 +1802,185 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>162</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>163</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="E51" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" t="s">
+        <v>164</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>165</v>
+      </c>
+      <c r="B52" t="s">
+        <v>166</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" t="s">
+        <v>89</v>
+      </c>
+      <c r="E52" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" t="s">
+        <v>167</v>
+      </c>
+      <c r="G52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>168</v>
+      </c>
+      <c r="B53" t="s">
+        <v>169</v>
+      </c>
+      <c r="C53" t="s">
+        <v>170</v>
+      </c>
+      <c r="D53" t="s">
+        <v>89</v>
+      </c>
+      <c r="E53" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" t="s">
+        <v>171</v>
+      </c>
+      <c r="G53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>172</v>
+      </c>
+      <c r="B54" t="s">
+        <v>173</v>
+      </c>
+      <c r="C54" t="s">
+        <v>174</v>
+      </c>
+      <c r="D54" t="s">
+        <v>89</v>
+      </c>
+      <c r="E54" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" t="s">
+        <v>175</v>
+      </c>
+      <c r="G54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>176</v>
+      </c>
+      <c r="B55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" t="s">
+        <v>89</v>
+      </c>
+      <c r="E55" t="s">
+        <v>60</v>
+      </c>
+      <c r="F55" t="s">
+        <v>123</v>
+      </c>
+      <c r="G55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>177</v>
+      </c>
+      <c r="B56" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" t="s">
+        <v>89</v>
+      </c>
+      <c r="E56" t="s">
+        <v>60</v>
+      </c>
+      <c r="F56" t="s">
+        <v>123</v>
+      </c>
+      <c r="G56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>178</v>
+      </c>
+      <c r="B57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" t="s">
+        <v>89</v>
+      </c>
+      <c r="E57" t="s">
+        <v>60</v>
+      </c>
+      <c r="F57" t="s">
+        <v>179</v>
+      </c>
+      <c r="G57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>180</v>
+      </c>
+      <c r="B58" t="s">
+        <v>150</v>
+      </c>
+      <c r="C58" t="s">
+        <v>181</v>
+      </c>
+      <c r="D58" t="s">
+        <v>89</v>
+      </c>
+      <c r="E58" t="s">
         <v>11</v>
       </c>
-      <c r="F51" t="s">
-        <v>137</v>
-      </c>
-      <c r="G51" t="s">
+      <c r="F58" t="s">
+        <v>182</v>
+      </c>
+      <c r="G58" t="s">
         <v>13</v>
       </c>
     </row>
